--- a/data/butterfly.date.outlier.notes.xlsx
+++ b/data/butterfly.date.outlier.notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhamo\Documents\git\nc-butterfly-phenology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC462BDE-4584-4EDC-B355-57370C9BAD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6AFCFE-D4B8-4663-AD9C-93C50070D880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="0" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" activeTab="1" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
   </bookViews>
   <sheets>
     <sheet name="notes by species" sheetId="2" r:id="rId1"/>
-    <sheet name="notes by year" sheetId="1" r:id="rId2"/>
+    <sheet name="general notes" sheetId="3" r:id="rId2"/>
+    <sheet name="notes by year" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="129">
   <si>
     <t>Species</t>
   </si>
@@ -320,6 +321,108 @@
   </si>
   <si>
     <t>2014, 2020</t>
+  </si>
+  <si>
+    <t>1996, 2005, 2011, 2019</t>
+  </si>
+  <si>
+    <t>earlydates visually identified as being early in an abundance vs. jd graph</t>
+  </si>
+  <si>
+    <t>earlydates visually identified as being late in an abundance vs. jd graph</t>
+  </si>
+  <si>
+    <t>1997, 2003, 2005, 2020</t>
+  </si>
+  <si>
+    <t>2011, 2016, 2017, 2019</t>
+  </si>
+  <si>
+    <t>late notes</t>
+  </si>
+  <si>
+    <t>early notes</t>
+  </si>
+  <si>
+    <t>remove this species</t>
+  </si>
+  <si>
+    <t>1996 dates start late; 2005, 2011, 2019 have a lack of abundant counts until later in the year</t>
+  </si>
+  <si>
+    <t>2005 - seems to be driven by the fact that the earliest sighting this year is relatively late, with a concentration of abundant sighting-days later in the year as a contributing factor (but this is not exclusive to 2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 - sightings during this year start very late. 2020 - has a concentration of abundant sighting-days later in the year (and by the same token, a lack of them earlier in the year), but that isn't exclusive to this year. </t>
+  </si>
+  <si>
+    <t>2000, 2003, 2015, 2018</t>
+  </si>
+  <si>
+    <t>2013 - there are a couple of sightings very, very early in the year</t>
+  </si>
+  <si>
+    <t>2000 - no sightings around the 100 jd mark, a concentration of sightings later in the year; 2003, 2015, and 2018 have sightings that start relatively late in the year</t>
+  </si>
+  <si>
+    <t>2012 - no obvious aberration?</t>
+  </si>
+  <si>
+    <t>2020 - a concentration of high abundance sighting days later in the year</t>
+  </si>
+  <si>
+    <t>2017 - a concentration of abundant sighting days early in the year</t>
+  </si>
+  <si>
+    <t>2019 - sightings start early, coupled with a noticeable lack of abundant sighting days later in the year</t>
+  </si>
+  <si>
+    <t>2011 - lack of abundant sighting days later in the year, no sightings past 200 jd (not exclusive to this year)</t>
+  </si>
+  <si>
+    <t>2014 - a concentration of high abundance sighting days later in the year, and a lack of them early in the year</t>
+  </si>
+  <si>
+    <t>general notes</t>
+  </si>
+  <si>
+    <t>2013 - not hugely later, but all sightings are concentrated around the same point</t>
+  </si>
+  <si>
+    <t>1997, 2000 - relatively more sightings concentrated earlier in the year</t>
+  </si>
+  <si>
+    <t>2014, 2019, 2020 - fewer observations concentrated around the 120 mark</t>
+  </si>
+  <si>
+    <t>1997, 2003, 2005, 2020 - relatively fewer observations concentrated towards the 100 mark</t>
+  </si>
+  <si>
+    <t>2019 - relatively fewer observations around the 100 mark; 2020 - lack of high abundance sighting days later in the year</t>
+  </si>
+  <si>
+    <t>2007 - quite a bit later. There's relatively fewer concentrations closer to the 200 mark</t>
+  </si>
+  <si>
+    <t>2011 - fewer sightings concentrated between the 200 and 300 mark; 2016, 2017, 2019 - concentration of sightings earlier in the year</t>
+  </si>
+  <si>
+    <t>2020 - abundance of sightings between the 100 and 200 mark</t>
+  </si>
+  <si>
+    <t>5 species-years have some iteration of the following as a cause - "2020 - a concentration of high abundance sighting days later in the year"</t>
+  </si>
+  <si>
+    <t>more likely to be unusually late (16 species-years) than unusually early (7 species-years)</t>
+  </si>
+  <si>
+    <t>2017 and 2020 were years that frequently had unusually high cumulative abundance across species. Was there a crop of bioblitzes that happened later in the year or something?</t>
+  </si>
+  <si>
+    <t>Seems more to do with the absence of expected concentrated sightings (17 species years), compared to the presence of unusually concentrated sightings (15 species years) if that makes sense</t>
+  </si>
+  <si>
+    <t>there are instances where there are simply unusually early or late sightings that year (5 species years)</t>
   </si>
 </sst>
 </file>
@@ -343,12 +446,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -363,10 +478,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,26 +800,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81EFF3C-CDDE-41B0-A824-6179CE9B7230}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="2" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="7" width="11.54296875" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="6" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" customWidth="1"/>
     <col min="11" max="11" width="17.36328125" customWidth="1"/>
     <col min="12" max="12" width="16.08984375" customWidth="1"/>
     <col min="13" max="13" width="17.1796875" customWidth="1"/>
     <col min="14" max="15" width="25.1796875" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="20.81640625" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="25.6328125" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,13 +845,13 @@
       <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -752,8 +878,23 @@
       <c r="Q1" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -773,14 +914,14 @@
         <f>D2-(2*E2)</f>
         <v>20.769999999999996</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H2">
         <f>D2+(2*E2)</f>
         <v>207.64999999999998</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>85</v>
       </c>
       <c r="J2">
@@ -809,8 +950,20 @@
       <c r="Q2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -830,14 +983,14 @@
         <f t="shared" ref="F3:F25" si="0">D3-(2*E3)</f>
         <v>96.9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H25" si="1">D3+(2*E3)</f>
         <v>200.02</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>2005</v>
       </c>
       <c r="J3">
@@ -866,8 +1019,20 @@
       <c r="Q3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3">
+        <v>2005</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -887,14 +1052,14 @@
         <f t="shared" si="0"/>
         <v>103.98</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
         <v>197.82</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>2019</v>
       </c>
       <c r="J4">
@@ -923,8 +1088,20 @@
       <c r="Q4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -944,14 +1121,14 @@
         <f t="shared" si="0"/>
         <v>15.469999999999999</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>155.31</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>2000</v>
       </c>
       <c r="J5">
@@ -980,8 +1157,20 @@
       <c r="Q5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5">
+        <v>2013</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1001,14 +1190,14 @@
         <f t="shared" si="0"/>
         <v>86.11999999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>2012</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
         <v>128.51999999999998</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J6">
@@ -1037,8 +1226,20 @@
       <c r="Q6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1058,14 +1259,14 @@
         <f t="shared" si="0"/>
         <v>70.2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>2017</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>111.52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J7">
@@ -1094,8 +1295,20 @@
       <c r="Q7">
         <v>2017</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1115,14 +1328,14 @@
         <f t="shared" si="0"/>
         <v>58.11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
         <v>248.26999999999998</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J8">
@@ -1151,8 +1364,20 @@
       <c r="Q8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1172,14 +1397,14 @@
         <f t="shared" si="0"/>
         <v>44.36999999999999</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>2019</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>145.76999999999998</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J9">
@@ -1208,8 +1433,20 @@
       <c r="Q9">
         <v>2017</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9">
+        <v>2019</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1229,14 +1466,14 @@
         <f t="shared" si="0"/>
         <v>70.37</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>2011</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
         <v>110.97</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J10">
@@ -1265,8 +1502,20 @@
       <c r="Q10">
         <v>2017</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1286,14 +1535,14 @@
         <f t="shared" si="0"/>
         <v>93.739999999999981</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
         <v>172.54</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>2020</v>
       </c>
       <c r="J11">
@@ -1322,8 +1571,20 @@
       <c r="Q11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11">
+        <v>2020</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1343,14 +1604,14 @@
         <f t="shared" si="0"/>
         <v>76.900000000000006</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
         <v>150.38</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>2014</v>
       </c>
       <c r="J12">
@@ -1379,8 +1640,20 @@
       <c r="Q12">
         <v>2017</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1400,14 +1673,14 @@
         <f t="shared" si="0"/>
         <v>48.7</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>240.22000000000003</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J13">
@@ -1436,8 +1709,23 @@
       <c r="Q13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" t="s">
+        <v>84</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1457,14 +1745,14 @@
         <f t="shared" si="0"/>
         <v>65.02</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
         <v>95.14</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>2013</v>
       </c>
       <c r="J14">
@@ -1493,8 +1781,20 @@
       <c r="Q14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1514,14 +1814,14 @@
         <f t="shared" si="0"/>
         <v>152.16999999999999</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
         <v>224.41</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J15">
@@ -1550,8 +1850,20 @@
       <c r="Q15">
         <v>2020</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1571,14 +1883,14 @@
         <f t="shared" si="0"/>
         <v>98.59</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
         <v>208.23</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J16">
@@ -1607,8 +1919,23 @@
       <c r="Q16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1628,14 +1955,14 @@
         <f t="shared" si="0"/>
         <v>106.05999999999999</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
         <v>197.77999999999997</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>87</v>
       </c>
       <c r="J17">
@@ -1664,8 +1991,20 @@
       <c r="Q17">
         <v>2010</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17">
+        <v>2014</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1685,14 +2024,14 @@
         <f t="shared" si="0"/>
         <v>108.69</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
         <v>225.73000000000002</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J18">
@@ -1721,8 +2060,20 @@
       <c r="Q18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T18" t="s">
+        <v>98</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1742,14 +2093,14 @@
         <f t="shared" si="0"/>
         <v>57.800000000000004</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
         <v>143.28</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J19">
@@ -1778,8 +2129,20 @@
       <c r="Q19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T19" t="s">
+        <v>84</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1799,14 +2162,14 @@
         <f t="shared" si="0"/>
         <v>82.12</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
         <v>141.88</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <v>2020</v>
       </c>
       <c r="J20">
@@ -1835,8 +2198,20 @@
       <c r="Q20">
         <v>2017</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R20" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20">
+        <v>2020</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1856,14 +2231,14 @@
         <f t="shared" si="0"/>
         <v>78.83</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
         <v>118.67</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J21">
@@ -1892,8 +2267,20 @@
       <c r="Q21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1913,14 +2300,14 @@
         <f t="shared" si="0"/>
         <v>75.5</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
         <v>130.34</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J22">
@@ -1949,8 +2336,20 @@
       <c r="Q22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1970,14 +2369,14 @@
         <f t="shared" si="0"/>
         <v>75.39</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>2011</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
         <v>163.79000000000002</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J23">
@@ -2006,8 +2405,20 @@
       <c r="Q23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" t="s">
+        <v>99</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2027,14 +2438,14 @@
         <f t="shared" si="0"/>
         <v>181.48000000000002</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
         <v>245.32</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>2007</v>
       </c>
       <c r="J24">
@@ -2063,8 +2474,20 @@
       <c r="Q24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T24">
+        <v>2007</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2084,14 +2507,14 @@
         <f t="shared" si="0"/>
         <v>90.19</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
         <v>167.14999999999998</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>1993</v>
       </c>
       <c r="J25">
@@ -2119,6 +2542,18 @@
       </c>
       <c r="Q25" t="s">
         <v>84</v>
+      </c>
+      <c r="R25" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2127,12 +2562,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E2C26-5F7C-4753-8206-EC4ED7AEF980}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF978CEF-4D9C-417C-A460-67F4EE090377}">
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/butterfly.date.outlier.notes.xlsx
+++ b/data/butterfly.date.outlier.notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhamo\Documents\git\nc-butterfly-phenology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6AFCFE-D4B8-4663-AD9C-93C50070D880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C384A6E-6544-4033-92DB-AEAE9AC0CA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" activeTab="1" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
   </bookViews>
   <sheets>
     <sheet name="notes by species" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="167">
   <si>
     <t>Species</t>
   </si>
@@ -344,9 +344,6 @@
     <t>early notes</t>
   </si>
   <si>
-    <t>remove this species</t>
-  </si>
-  <si>
     <t>1996 dates start late; 2005, 2011, 2019 have a lack of abundant counts until later in the year</t>
   </si>
   <si>
@@ -423,6 +420,123 @@
   </si>
   <si>
     <t>there are instances where there are simply unusually early or late sightings that year (5 species years)</t>
+  </si>
+  <si>
+    <t>Anthocharis midea</t>
+  </si>
+  <si>
+    <t>Asterocampa celtis</t>
+  </si>
+  <si>
+    <t>Battus philenor</t>
+  </si>
+  <si>
+    <t>Calycopis cecrops</t>
+  </si>
+  <si>
+    <t>Celastrina ladon</t>
+  </si>
+  <si>
+    <t>Danaus plexippus</t>
+  </si>
+  <si>
+    <t>Epargyreus clarus</t>
+  </si>
+  <si>
+    <t>Euphyes vestris</t>
+  </si>
+  <si>
+    <t>Euptoieta claudia</t>
+  </si>
+  <si>
+    <t>Hermeuptychia sosybius</t>
+  </si>
+  <si>
+    <t>Lerema accius</t>
+  </si>
+  <si>
+    <t>Lethe anthedon</t>
+  </si>
+  <si>
+    <t>Lethe appalachia</t>
+  </si>
+  <si>
+    <t>Limenitis archippus</t>
+  </si>
+  <si>
+    <t>Megisto cymela</t>
+  </si>
+  <si>
+    <t>Phyciodes tharos</t>
+  </si>
+  <si>
+    <t>Polites origenes</t>
+  </si>
+  <si>
+    <t>Polygonia comma</t>
+  </si>
+  <si>
+    <t>Polygonia interrogationis</t>
+  </si>
+  <si>
+    <t>Speyeria cybele</t>
+  </si>
+  <si>
+    <t>Strymon melinus</t>
+  </si>
+  <si>
+    <t>Thorybes bathyllus</t>
+  </si>
+  <si>
+    <t>Vanessa atalantis</t>
+  </si>
+  <si>
+    <t>Wallengrenia otho</t>
+  </si>
+  <si>
+    <t>2018, 2020</t>
+  </si>
+  <si>
+    <t>2017, 2018</t>
+  </si>
+  <si>
+    <t>1998, 2000, 2010</t>
+  </si>
+  <si>
+    <t>1997, 2015</t>
+  </si>
+  <si>
+    <t>2012, 2015</t>
+  </si>
+  <si>
+    <t>2013, 2015</t>
+  </si>
+  <si>
+    <t>abundance of early years</t>
+  </si>
+  <si>
+    <t>21, 32</t>
+  </si>
+  <si>
+    <t>abundance of late years</t>
+  </si>
+  <si>
+    <t>17, 31</t>
+  </si>
+  <si>
+    <t>18, 62</t>
+  </si>
+  <si>
+    <t>12, 12</t>
+  </si>
+  <si>
+    <t>13, 10</t>
+  </si>
+  <si>
+    <t>27, 15</t>
+  </si>
+  <si>
+    <t>18, 14, 24</t>
   </si>
 </sst>
 </file>
@@ -800,33 +914,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81EFF3C-CDDE-41B0-A824-6179CE9B7230}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
-    <col min="12" max="12" width="16.08984375" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1"/>
-    <col min="14" max="15" width="25.1796875" customWidth="1"/>
-    <col min="16" max="17" width="8.7265625" customWidth="1"/>
-    <col min="18" max="18" width="20.81640625" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="25.6328125" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="13" style="4" customWidth="1"/>
+    <col min="8" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="17.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="17" width="25.1796875" customWidth="1"/>
+    <col min="18" max="19" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="20.81640625" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="25.6328125" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,52 +969,58 @@
         <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="X1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -917,953 +1043,950 @@
       <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2">
         <f>D2+(2*E2)</f>
         <v>207.64999999999998</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J2">
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2">
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>126</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>48.64</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>24.6</v>
       </c>
-      <c r="N2">
-        <f>L2-(2*M2)</f>
+      <c r="P2">
+        <f>N2-(2*O2)</f>
         <v>-0.56000000000000227</v>
       </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2">
-        <f>L2+(2*M2)</f>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2">
+        <f>N2+(2*O2)</f>
         <v>97.84</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>2020</v>
       </c>
-      <c r="R2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W2" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C3">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D3">
-        <v>148.46</v>
+        <v>150.9</v>
       </c>
       <c r="E3">
-        <v>25.78</v>
+        <v>23.46</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="0">D3-(2*E3)</f>
-        <v>96.9</v>
+        <f t="shared" ref="F3:F48" si="0">D3-(2*E3)</f>
+        <v>103.98</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H25" si="1">D3+(2*E3)</f>
-        <v>200.02</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2005</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I48" si="1">D3+(2*E3)</f>
+        <v>197.82</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2019</v>
       </c>
       <c r="K3">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="L3">
-        <v>58.96</v>
+        <v>11</v>
       </c>
       <c r="M3">
-        <v>30.58</v>
+        <v>50</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N25" si="2">L3-(2*M3)</f>
-        <v>-2.1999999999999957</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
+        <v>26.81</v>
+      </c>
+      <c r="O3">
+        <v>12.67</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P25" si="3">L3+(2*M3)</f>
-        <v>120.12</v>
-      </c>
-      <c r="Q3">
-        <v>2020</v>
-      </c>
-      <c r="R3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3">
-        <v>2005</v>
-      </c>
-      <c r="U3" s="6" t="s">
+        <f t="shared" ref="P3:P48" si="2">N3-(2*O3)</f>
+        <v>1.4699999999999989</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R48" si="3">N3+(2*O3)</f>
+        <v>52.15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="B4">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>150.9</v>
+        <v>71.84</v>
       </c>
       <c r="E4">
-        <v>23.46</v>
+        <v>6.47</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>103.98</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>84</v>
+        <v>58.900000000000006</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2017</v>
       </c>
       <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="1"/>
-        <v>197.82</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2019</v>
-      </c>
-      <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>50</v>
+        <v>84.78</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
       </c>
       <c r="L4">
-        <v>26.81</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>12.67</v>
+        <v>26</v>
       </c>
       <c r="N4">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="O4">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="2"/>
-        <v>1.4699999999999989</v>
-      </c>
-      <c r="O4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="3"/>
-        <v>52.15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <v>27.220000000000002</v>
+      </c>
+      <c r="S4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>85.39</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>34.96</v>
+        <v>14.76</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>15.469999999999999</v>
+        <v>113.48</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>155.31</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
+        <v>172.52</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2020</v>
       </c>
       <c r="K5">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="L5">
-        <v>23.91</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>12.77</v>
+        <v>39</v>
       </c>
       <c r="N5">
+        <v>18.82</v>
+      </c>
+      <c r="O5">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>-1.629999999999999</v>
-      </c>
-      <c r="O5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5">
+        <v>1.5599999999999987</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="3"/>
-        <v>49.45</v>
-      </c>
-      <c r="Q5">
+        <v>36.08</v>
+      </c>
+      <c r="S5">
         <v>2020</v>
       </c>
-      <c r="R5">
-        <v>2013</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="T5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="D6">
-        <v>107.32</v>
+        <v>167.21</v>
       </c>
       <c r="E6">
-        <v>10.6</v>
+        <v>29.26</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
+        <v>108.69</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>225.73000000000002</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>72</v>
+      </c>
+      <c r="N6">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>13.99</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>14.02</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>69.98</v>
+      </c>
+      <c r="S6" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>135</v>
+      </c>
+      <c r="D7">
+        <v>107.45</v>
+      </c>
+      <c r="E7">
+        <v>13.2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>81.050000000000011</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>133.85</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2009</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>22.9</v>
+      </c>
+      <c r="O7">
+        <v>9.59</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>3.7199999999999989</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>42.08</v>
+      </c>
+      <c r="S7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8">
+        <v>89</v>
+      </c>
+      <c r="C8">
+        <v>209</v>
+      </c>
+      <c r="D8">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="E8">
+        <v>38.08</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>53.140000000000015</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>205.46</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2006</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>25.09</v>
+      </c>
+      <c r="O8">
+        <v>9.42</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>43.93</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>68.33</v>
+      </c>
+      <c r="E9">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>49.069999999999993</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>87.59</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>14.33</v>
+      </c>
+      <c r="O9">
+        <v>2.87</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>8.59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>20.07</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>148</v>
+      </c>
+      <c r="D10">
+        <v>119.59</v>
+      </c>
+      <c r="E10">
+        <v>22.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>75.39</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2011</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>163.79000000000002</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>73</v>
+      </c>
+      <c r="N10">
+        <v>31.67</v>
+      </c>
+      <c r="O10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>-0.53000000000000114</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>63.870000000000005</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>144</v>
+      </c>
+      <c r="D11">
+        <v>100.54</v>
+      </c>
+      <c r="E11">
+        <v>21.37</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>143.28</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>62</v>
+      </c>
+      <c r="N11">
+        <v>32.93</v>
+      </c>
+      <c r="O11">
+        <v>13.66</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>60.25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" t="s">
+        <v>84</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>107.32</v>
+      </c>
+      <c r="E12">
+        <v>10.6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
         <v>86.11999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G12" s="4">
         <v>2012</v>
       </c>
-      <c r="H6">
+      <c r="H12">
+        <v>85</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>128.51999999999998</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6">
+      <c r="J12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12">
         <v>24</v>
       </c>
-      <c r="K6">
+      <c r="M12">
         <v>150</v>
       </c>
-      <c r="L6">
+      <c r="N12">
         <v>61.71</v>
       </c>
-      <c r="M6">
+      <c r="O12">
         <v>26.76</v>
       </c>
-      <c r="N6">
+      <c r="P12">
         <f t="shared" si="2"/>
         <v>8.1899999999999977</v>
       </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6">
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="3"/>
         <v>115.23</v>
       </c>
-      <c r="Q6">
+      <c r="S12">
         <v>2020</v>
       </c>
-      <c r="R6" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="T12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" t="s">
+        <v>84</v>
+      </c>
+      <c r="W12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="T6" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>109</v>
-      </c>
-      <c r="D7">
-        <v>90.86</v>
-      </c>
-      <c r="E7">
-        <v>10.33</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>70.2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2017</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>111.52</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>156</v>
-      </c>
-      <c r="L7">
-        <v>78.75</v>
-      </c>
-      <c r="M7">
-        <v>34.19</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>10.370000000000005</v>
-      </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>147.13</v>
-      </c>
-      <c r="Q7">
-        <v>2017</v>
-      </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>89</v>
-      </c>
-      <c r="C8">
-        <v>244</v>
-      </c>
-      <c r="D8">
-        <v>153.19</v>
-      </c>
-      <c r="E8">
-        <v>47.54</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>58.11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>248.26999999999998</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>133</v>
-      </c>
-      <c r="L8">
-        <v>42.74</v>
-      </c>
-      <c r="M8">
-        <v>27.15</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>-11.559999999999995</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>97.039999999999992</v>
-      </c>
-      <c r="Q8">
-        <v>2020</v>
-      </c>
-      <c r="R8" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>144</v>
-      </c>
-      <c r="D9">
-        <v>95.07</v>
-      </c>
-      <c r="E9">
-        <v>25.35</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>44.36999999999999</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2019</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>145.76999999999998</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>71</v>
-      </c>
-      <c r="L9">
-        <v>39</v>
-      </c>
-      <c r="M9">
-        <v>15.91</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>7.18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>70.819999999999993</v>
-      </c>
-      <c r="Q9">
-        <v>2017</v>
-      </c>
-      <c r="R9">
-        <v>2019</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>66</v>
-      </c>
-      <c r="C10">
-        <v>106</v>
-      </c>
-      <c r="D10">
-        <v>90.67</v>
-      </c>
-      <c r="E10">
-        <v>10.15</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>70.37</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2011</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>110.97</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>29</v>
-      </c>
-      <c r="L10">
-        <v>15.67</v>
-      </c>
-      <c r="M10">
-        <v>5.51</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>26.689999999999998</v>
-      </c>
-      <c r="Q10">
-        <v>2017</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="T10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>98</v>
-      </c>
-      <c r="C11">
-        <v>215</v>
-      </c>
-      <c r="D11">
-        <v>133.13999999999999</v>
-      </c>
-      <c r="E11">
-        <v>19.7</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>93.739999999999981</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>172.54</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2020</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>72</v>
-      </c>
-      <c r="L11">
-        <v>41.46</v>
-      </c>
-      <c r="M11">
-        <v>16.97</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>7.5200000000000031</v>
-      </c>
-      <c r="O11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>75.400000000000006</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11">
-        <v>2020</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>79</v>
-      </c>
-      <c r="C12">
-        <v>156</v>
-      </c>
-      <c r="D12">
-        <v>113.64</v>
-      </c>
-      <c r="E12">
-        <v>18.37</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>76.900000000000006</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>150.38</v>
-      </c>
-      <c r="I12" s="6">
-        <v>2014</v>
-      </c>
-      <c r="J12">
-        <v>22</v>
-      </c>
-      <c r="K12">
-        <v>94</v>
-      </c>
-      <c r="L12">
-        <v>51.32</v>
-      </c>
-      <c r="M12">
-        <v>18.13</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>15.060000000000002</v>
-      </c>
-      <c r="O12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>87.58</v>
-      </c>
-      <c r="Q12">
-        <v>2017</v>
-      </c>
-      <c r="R12" t="s">
-        <v>84</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C13">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="D13">
-        <v>144.46</v>
+        <v>98.75</v>
       </c>
       <c r="E13">
-        <v>47.88</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>48.7</v>
+        <v>78.83</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>240.22000000000003</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13">
+        <v>118.67</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13">
         <v>10</v>
       </c>
-      <c r="K13">
-        <v>82</v>
-      </c>
-      <c r="L13">
-        <v>27.46</v>
-      </c>
       <c r="M13">
-        <v>15.62</v>
+        <v>46</v>
       </c>
       <c r="N13">
+        <v>20.25</v>
+      </c>
+      <c r="O13">
+        <v>10.28</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="2"/>
-        <v>-3.7799999999999976</v>
-      </c>
-      <c r="O13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13">
+        <v>-0.30999999999999872</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="3"/>
-        <v>58.7</v>
-      </c>
-      <c r="Q13">
-        <v>2020</v>
-      </c>
-      <c r="R13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>84</v>
+        <v>40.81</v>
+      </c>
+      <c r="S13" t="s">
+        <v>93</v>
       </c>
       <c r="T13" t="s">
         <v>84</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="4" t="s">
         <v>84</v>
       </c>
       <c r="V13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="D14">
-        <v>80.08</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="E14">
-        <v>7.53</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>65.02</v>
+        <v>81.699999999999989</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
-        <v>95.14</v>
-      </c>
-      <c r="I14" s="6">
-        <v>2013</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
+        <v>221.7</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2005</v>
       </c>
       <c r="K14">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="L14">
-        <v>21.16</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>7.86</v>
+        <v>92</v>
       </c>
       <c r="N14">
+        <v>35.44</v>
+      </c>
+      <c r="O14">
+        <v>17.96</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="2"/>
-        <v>5.4399999999999995</v>
-      </c>
-      <c r="O14" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14">
+        <v>-0.48000000000000398</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="3"/>
-        <v>36.880000000000003</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" t="s">
-        <v>84</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14" t="s">
-        <v>84</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+        <v>71.36</v>
+      </c>
+      <c r="S14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="B15">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D15">
-        <v>188.29</v>
+        <v>123.86</v>
       </c>
       <c r="E15">
-        <v>18.059999999999999</v>
+        <v>15.12</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>152.16999999999999</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>84</v>
+        <v>93.62</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2012</v>
       </c>
       <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
-        <v>224.41</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
-      <c r="K15">
-        <v>125</v>
+        <v>154.1</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
       </c>
       <c r="L15">
-        <v>42.32</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>25.84</v>
+        <v>103</v>
       </c>
       <c r="N15">
+        <v>51.11</v>
+      </c>
+      <c r="O15">
+        <v>22.17</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="2"/>
-        <v>-9.36</v>
-      </c>
-      <c r="O15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15">
+        <v>6.769999999999996</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="Q15">
-        <v>2020</v>
-      </c>
-      <c r="R15" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" t="s">
-        <v>84</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+        <v>95.45</v>
+      </c>
+      <c r="S15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1886,677 +2009,2267 @@
       <c r="G16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>208.23</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16">
+      <c r="J16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16">
         <v>11</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>53</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>26.44</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>11.49</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f t="shared" si="2"/>
         <v>3.4600000000000009</v>
       </c>
-      <c r="O16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16">
+      <c r="Q16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="3"/>
         <v>49.42</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>91</v>
       </c>
-      <c r="R16" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="T16" t="s">
         <v>84</v>
       </c>
-      <c r="U16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16" s="6" t="s">
+      <c r="U16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="V16" t="s">
+        <v>84</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>151.91999999999999</v>
+        <v>80.08</v>
       </c>
       <c r="E17">
-        <v>22.93</v>
+        <v>7.53</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
+        <v>65.02</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>95.14</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2013</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>43</v>
+      </c>
+      <c r="N17">
+        <v>21.16</v>
+      </c>
+      <c r="O17">
+        <v>7.86</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>5.4399999999999995</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>36.880000000000003</v>
+      </c>
+      <c r="S17" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>217</v>
+      </c>
+      <c r="D18">
+        <v>157.35</v>
+      </c>
+      <c r="E18">
+        <v>23.41</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>110.53</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>204.17</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18">
+        <v>17.04</v>
+      </c>
+      <c r="O18">
+        <v>6.94</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>3.1599999999999984</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>30.92</v>
+      </c>
+      <c r="S18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>237</v>
+      </c>
+      <c r="D19">
+        <v>149.11000000000001</v>
+      </c>
+      <c r="E19">
+        <v>35.76</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>77.590000000000018</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>220.63</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1994</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>89</v>
+      </c>
+      <c r="N19">
+        <v>32.57</v>
+      </c>
+      <c r="O19">
+        <v>20.92</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>-9.2700000000000031</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>74.41</v>
+      </c>
+      <c r="S19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>106</v>
+      </c>
+      <c r="D20">
+        <v>90.67</v>
+      </c>
+      <c r="E20">
+        <v>10.15</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>70.37</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2011</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>110.97</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>15.67</v>
+      </c>
+      <c r="O20">
+        <v>5.51</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>26.689999999999998</v>
+      </c>
+      <c r="S20">
+        <v>2017</v>
+      </c>
+      <c r="T20" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V20" t="s">
+        <v>84</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>135</v>
+      </c>
+      <c r="D21">
+        <v>115.18</v>
+      </c>
+      <c r="E21">
+        <v>10.38</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>94.42</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2007</v>
+      </c>
+      <c r="H21">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>135.94</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21">
+        <v>11</v>
+      </c>
+      <c r="M21">
+        <v>103</v>
+      </c>
+      <c r="N21">
+        <v>39.96</v>
+      </c>
+      <c r="O21">
+        <v>21.65</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>-3.3399999999999963</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>83.259999999999991</v>
+      </c>
+      <c r="S21">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>155</v>
+      </c>
+      <c r="C22">
+        <v>221</v>
+      </c>
+      <c r="D22">
+        <v>188.29</v>
+      </c>
+      <c r="E22">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>152.16999999999999</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>224.41</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>125</v>
+      </c>
+      <c r="N22">
+        <v>42.32</v>
+      </c>
+      <c r="O22">
+        <v>25.84</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>-9.36</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>84</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="S22">
+        <v>2020</v>
+      </c>
+      <c r="T22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" t="s">
+        <v>84</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>211</v>
+      </c>
+      <c r="D23">
+        <v>148.46</v>
+      </c>
+      <c r="E23">
+        <v>25.78</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>96.9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>200.02</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2005</v>
+      </c>
+      <c r="K23">
+        <v>31</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>153</v>
+      </c>
+      <c r="N23">
+        <v>58.96</v>
+      </c>
+      <c r="O23">
+        <v>30.58</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>-2.1999999999999957</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>120.12</v>
+      </c>
+      <c r="S23">
+        <v>2020</v>
+      </c>
+      <c r="T23" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V23">
+        <v>2005</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24">
+        <v>131</v>
+      </c>
+      <c r="C24">
+        <v>243</v>
+      </c>
+      <c r="D24">
+        <v>192.5</v>
+      </c>
+      <c r="E24">
+        <v>30.98</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>130.54</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>254.46</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>104</v>
+      </c>
+      <c r="N24">
+        <v>36.14</v>
+      </c>
+      <c r="O24">
+        <v>18.46</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>-0.78000000000000114</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>84</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>73.06</v>
+      </c>
+      <c r="S24">
+        <v>2020</v>
+      </c>
+      <c r="T24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <v>132</v>
+      </c>
+      <c r="C25">
+        <v>211</v>
+      </c>
+      <c r="D25">
+        <v>153.07</v>
+      </c>
+      <c r="E25">
+        <v>21.17</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>110.72999999999999</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>195.41</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>14.79</v>
+      </c>
+      <c r="O25">
+        <v>6.13</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>2.5299999999999994</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>84</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>27.049999999999997</v>
+      </c>
+      <c r="S25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26">
+        <v>115</v>
+      </c>
+      <c r="C26">
+        <v>167</v>
+      </c>
+      <c r="D26">
+        <v>140.38</v>
+      </c>
+      <c r="E26">
+        <v>14.92</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>110.53999999999999</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>170.22</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>16.5</v>
+      </c>
+      <c r="O26">
+        <v>5.13</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>6.24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>26.759999999999998</v>
+      </c>
+      <c r="S26">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>160</v>
+      </c>
+      <c r="D27">
+        <v>85.39</v>
+      </c>
+      <c r="E27">
+        <v>34.96</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>15.469999999999999</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>155.31</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
+      </c>
+      <c r="M27">
+        <v>64</v>
+      </c>
+      <c r="N27">
+        <v>23.91</v>
+      </c>
+      <c r="O27">
+        <v>12.77</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>-1.629999999999999</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>49.45</v>
+      </c>
+      <c r="S27">
+        <v>2020</v>
+      </c>
+      <c r="T27">
+        <v>2013</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="V27" t="s">
+        <v>105</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28">
+        <v>122</v>
+      </c>
+      <c r="C28">
+        <v>216</v>
+      </c>
+      <c r="D28">
+        <v>144.74</v>
+      </c>
+      <c r="E28">
+        <v>24.94</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>94.860000000000014</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>194.62</v>
+      </c>
+      <c r="J28" s="6">
+        <v>2001</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>18.3</v>
+      </c>
+      <c r="O28">
+        <v>6.41</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>5.48</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>84</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>31.12</v>
+      </c>
+      <c r="S28">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <v>215</v>
+      </c>
+      <c r="D29">
+        <v>133.13999999999999</v>
+      </c>
+      <c r="E29">
+        <v>19.7</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>93.739999999999981</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>172.54</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K29">
+        <v>62</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>72</v>
+      </c>
+      <c r="N29">
+        <v>41.46</v>
+      </c>
+      <c r="O29">
+        <v>16.97</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>7.5200000000000031</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>84</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>75.400000000000006</v>
+      </c>
+      <c r="S29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T29" t="s">
+        <v>84</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V29">
+        <v>2020</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+      <c r="C30">
+        <v>145</v>
+      </c>
+      <c r="D30">
+        <v>137.06</v>
+      </c>
+      <c r="E30">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>128.84</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>145.28</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>15.06</v>
+      </c>
+      <c r="O30">
+        <v>5.41</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>4.24</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>25.880000000000003</v>
+      </c>
+      <c r="S30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>191</v>
+      </c>
+      <c r="C31">
+        <v>273</v>
+      </c>
+      <c r="D31">
+        <v>213.4</v>
+      </c>
+      <c r="E31">
+        <v>15.96</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>181.48000000000002</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>245.32</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K31">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>78</v>
+      </c>
+      <c r="N31">
+        <v>27.24</v>
+      </c>
+      <c r="O31">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>-9.100000000000005</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>63.58</v>
+      </c>
+      <c r="S31" t="s">
+        <v>94</v>
+      </c>
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V31">
+        <v>2007</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>109</v>
+      </c>
+      <c r="D32">
+        <v>90.86</v>
+      </c>
+      <c r="E32">
+        <v>10.33</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>70.2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H32">
+        <v>156</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>111.52</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>156</v>
+      </c>
+      <c r="N32">
+        <v>78.75</v>
+      </c>
+      <c r="O32">
+        <v>34.19</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>10.370000000000005</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>84</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>147.13</v>
+      </c>
+      <c r="S32">
+        <v>2017</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="V32" t="s">
+        <v>84</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>142</v>
+      </c>
+      <c r="D33">
+        <v>102.92</v>
+      </c>
+      <c r="E33">
+        <v>13.71</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>75.5</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>130.34</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <v>46</v>
+      </c>
+      <c r="N33">
+        <v>23.2</v>
+      </c>
+      <c r="O33">
+        <v>9.77</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>3.66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>84</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>42.739999999999995</v>
+      </c>
+      <c r="S33" t="s">
+        <v>84</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V33" t="s">
+        <v>84</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>90</v>
+      </c>
+      <c r="C34">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>112</v>
+      </c>
+      <c r="E34">
+        <v>14.94</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>82.12</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>141.88</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K34">
+        <v>43</v>
+      </c>
+      <c r="L34">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <v>52</v>
+      </c>
+      <c r="N34">
+        <v>29.43</v>
+      </c>
+      <c r="O34">
+        <v>10.86</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>7.7100000000000009</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>84</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>51.15</v>
+      </c>
+      <c r="S34">
+        <v>2017</v>
+      </c>
+      <c r="T34" t="s">
+        <v>84</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V34">
+        <v>2020</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>244</v>
+      </c>
+      <c r="D35">
+        <v>153.19</v>
+      </c>
+      <c r="E35">
+        <v>47.54</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>58.11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>248.26999999999998</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35">
+        <v>11</v>
+      </c>
+      <c r="M35">
+        <v>133</v>
+      </c>
+      <c r="N35">
+        <v>42.74</v>
+      </c>
+      <c r="O35">
+        <v>27.15</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>-11.559999999999995</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>84</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>97.039999999999992</v>
+      </c>
+      <c r="S35">
+        <v>2020</v>
+      </c>
+      <c r="T35" t="s">
+        <v>84</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V35" t="s">
+        <v>84</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <v>140</v>
+      </c>
+      <c r="D36">
+        <v>114.25</v>
+      </c>
+      <c r="E36">
+        <v>12.26</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>89.73</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2012</v>
+      </c>
+      <c r="H36">
+        <v>88</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>138.77000000000001</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>149</v>
+      </c>
+      <c r="N36">
+        <v>70.25</v>
+      </c>
+      <c r="O36">
+        <v>30.79</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>8.6700000000000017</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>84</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>131.82999999999998</v>
+      </c>
+      <c r="S36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>144</v>
+      </c>
+      <c r="D37">
+        <v>95.07</v>
+      </c>
+      <c r="E37">
+        <v>25.35</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>44.36999999999999</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H37">
+        <v>22</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>145.76999999999998</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37">
+        <v>15</v>
+      </c>
+      <c r="M37">
+        <v>71</v>
+      </c>
+      <c r="N37">
+        <v>39</v>
+      </c>
+      <c r="O37">
+        <v>15.91</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>7.18</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>84</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>70.819999999999993</v>
+      </c>
+      <c r="S37">
+        <v>2017</v>
+      </c>
+      <c r="T37">
+        <v>2019</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V37" t="s">
+        <v>84</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38">
+        <v>132</v>
+      </c>
+      <c r="C38">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>149.4</v>
+      </c>
+      <c r="E38">
+        <v>15.24</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>118.92</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>179.88</v>
+      </c>
+      <c r="J38" s="6">
+        <v>2019</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="O38">
+        <v>4.96</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>7.2299999999999986</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>84</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>27.07</v>
+      </c>
+      <c r="S38">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>133</v>
+      </c>
+      <c r="D39">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="E39">
+        <v>22.8</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>30.639999999999993</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>121.84</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>48</v>
+      </c>
+      <c r="N39">
+        <v>21.96</v>
+      </c>
+      <c r="O39">
+        <v>10.15</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>42.260000000000005</v>
+      </c>
+      <c r="S39">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>139</v>
+      </c>
+      <c r="D40">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="E40">
+        <v>21.97</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>35.850000000000009</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>123.73</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K40" t="s">
+        <v>165</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>76</v>
+      </c>
+      <c r="N40">
+        <v>35.07</v>
+      </c>
+      <c r="O40">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>1.7700000000000031</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>84</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>68.37</v>
+      </c>
+      <c r="S40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>132</v>
+      </c>
+      <c r="C41">
+        <v>215</v>
+      </c>
+      <c r="D41">
+        <v>151.91999999999999</v>
+      </c>
+      <c r="E41">
+        <v>22.93</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
         <v>106.05999999999999</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17">
+      <c r="G41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>197.77999999999997</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J17">
+      <c r="K41" t="s">
+        <v>166</v>
+      </c>
+      <c r="L41">
         <v>10</v>
       </c>
-      <c r="K17">
+      <c r="M41">
         <v>38</v>
       </c>
-      <c r="L17">
+      <c r="N41">
         <v>18.920000000000002</v>
       </c>
-      <c r="M17">
+      <c r="O41">
         <v>6.41</v>
       </c>
-      <c r="N17">
+      <c r="P41">
         <f t="shared" si="2"/>
         <v>6.1000000000000014</v>
       </c>
-      <c r="O17" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17">
+      <c r="Q41" t="s">
+        <v>84</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="3"/>
         <v>31.740000000000002</v>
       </c>
-      <c r="Q17">
+      <c r="S41">
         <v>2010</v>
       </c>
-      <c r="R17" t="s">
-        <v>84</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T17">
+      <c r="T41" t="s">
+        <v>84</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V41">
         <v>2014</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
+      <c r="W41" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <v>227</v>
+      </c>
+      <c r="D42">
+        <v>144.46</v>
+      </c>
+      <c r="E42">
+        <v>47.88</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>48.7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>240.22000000000003</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>82</v>
+      </c>
+      <c r="N42">
+        <v>27.46</v>
+      </c>
+      <c r="O42">
+        <v>15.62</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>-3.7799999999999976</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>84</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>58.7</v>
+      </c>
+      <c r="S42">
+        <v>2020</v>
+      </c>
+      <c r="T42" t="s">
+        <v>84</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V42" t="s">
+        <v>84</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+      <c r="C43">
+        <v>163</v>
+      </c>
+      <c r="D43">
+        <v>145.57</v>
+      </c>
+      <c r="E43">
+        <v>9.42</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>126.72999999999999</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>164.41</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" t="s">
+        <v>84</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>28</v>
+      </c>
+      <c r="N43">
+        <v>15.5</v>
+      </c>
+      <c r="O43">
+        <v>5.13</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>5.24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>84</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>25.759999999999998</v>
+      </c>
+      <c r="S43">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>145.11000000000001</v>
+      </c>
+      <c r="E44">
+        <v>32.96</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>79.190000000000012</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>211.03000000000003</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" t="s">
+        <v>84</v>
+      </c>
+      <c r="L44">
+        <v>13</v>
+      </c>
+      <c r="M44">
+        <v>54</v>
+      </c>
+      <c r="N44">
+        <v>25.93</v>
+      </c>
+      <c r="O44">
+        <v>11.33</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>3.2699999999999996</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>84</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>48.59</v>
+      </c>
+      <c r="S44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45">
         <v>114</v>
       </c>
-      <c r="C18">
-        <v>211</v>
-      </c>
-      <c r="D18">
-        <v>167.21</v>
-      </c>
-      <c r="E18">
-        <v>29.26</v>
-      </c>
-      <c r="F18">
+      <c r="C45">
+        <v>146</v>
+      </c>
+      <c r="D45">
+        <v>132.69</v>
+      </c>
+      <c r="E45">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="0"/>
-        <v>108.69</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18">
+        <v>114.11</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H45">
+        <v>18</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="1"/>
-        <v>225.73000000000002</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18">
-        <v>15</v>
-      </c>
-      <c r="K18">
-        <v>72</v>
-      </c>
-      <c r="L18">
-        <v>42</v>
-      </c>
-      <c r="M18">
-        <v>13.99</v>
-      </c>
-      <c r="N18">
+        <v>151.26999999999998</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>13.46</v>
+      </c>
+      <c r="O45">
+        <v>3.86</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="2"/>
-        <v>14.02</v>
-      </c>
-      <c r="O18" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18">
+        <v>5.7400000000000011</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>84</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="3"/>
-        <v>69.98</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" t="s">
-        <v>84</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T18" t="s">
-        <v>98</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>68</v>
-      </c>
-      <c r="C19">
-        <v>144</v>
-      </c>
-      <c r="D19">
-        <v>100.54</v>
-      </c>
-      <c r="E19">
-        <v>21.37</v>
-      </c>
-      <c r="F19">
+        <v>21.18</v>
+      </c>
+      <c r="S45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46">
+        <v>93</v>
+      </c>
+      <c r="C46">
+        <v>156</v>
+      </c>
+      <c r="D46">
+        <v>122.3</v>
+      </c>
+      <c r="E46">
+        <v>15.73</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="0"/>
-        <v>57.800000000000004</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19">
+        <v>90.84</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="1"/>
-        <v>143.28</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19">
-        <v>16</v>
-      </c>
-      <c r="K19">
+        <v>153.76</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1993</v>
+      </c>
+      <c r="K46">
+        <v>21</v>
+      </c>
+      <c r="L46">
+        <v>11</v>
+      </c>
+      <c r="M46">
+        <v>71</v>
+      </c>
+      <c r="N46">
+        <v>28.93</v>
+      </c>
+      <c r="O46">
+        <v>15.11</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>-1.2899999999999991</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>84</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>59.15</v>
+      </c>
+      <c r="S46">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>156</v>
+      </c>
+      <c r="D47">
+        <v>113.64</v>
+      </c>
+      <c r="E47">
+        <v>18.37</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>150.38</v>
+      </c>
+      <c r="J47" s="6">
+        <v>2014</v>
+      </c>
+      <c r="K47">
         <v>62</v>
       </c>
-      <c r="L19">
-        <v>32.93</v>
-      </c>
-      <c r="M19">
-        <v>13.66</v>
-      </c>
-      <c r="N19">
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>94</v>
+      </c>
+      <c r="N47">
+        <v>51.32</v>
+      </c>
+      <c r="O47">
+        <v>18.13</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="2"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="O19" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19">
+        <v>15.060000000000002</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>84</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="3"/>
-        <v>60.25</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" t="s">
-        <v>84</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T19" t="s">
-        <v>84</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>90</v>
-      </c>
-      <c r="C20">
-        <v>144</v>
-      </c>
-      <c r="D20">
-        <v>112</v>
-      </c>
-      <c r="E20">
-        <v>14.94</v>
-      </c>
-      <c r="F20">
+        <v>87.58</v>
+      </c>
+      <c r="S47">
+        <v>2017</v>
+      </c>
+      <c r="T47" t="s">
+        <v>84</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V47" t="s">
+        <v>84</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48">
+        <v>127</v>
+      </c>
+      <c r="C48">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>149.71</v>
+      </c>
+      <c r="E48">
+        <v>10.26</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="0"/>
-        <v>82.12</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20">
+        <v>129.19</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2017</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="1"/>
-        <v>141.88</v>
-      </c>
-      <c r="I20" s="6">
-        <v>2020</v>
-      </c>
-      <c r="J20">
-        <v>16</v>
-      </c>
-      <c r="K20">
-        <v>52</v>
-      </c>
-      <c r="L20">
-        <v>29.43</v>
-      </c>
-      <c r="M20">
-        <v>10.86</v>
-      </c>
-      <c r="N20">
+        <v>170.23000000000002</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48" t="s">
+        <v>84</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <v>14.12</v>
+      </c>
+      <c r="O48">
+        <v>4.26</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="2"/>
-        <v>7.7100000000000009</v>
-      </c>
-      <c r="O20" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20">
+        <v>5.6</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>84</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="3"/>
-        <v>51.15</v>
-      </c>
-      <c r="Q20">
-        <v>2017</v>
-      </c>
-      <c r="R20" t="s">
-        <v>84</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T20">
-        <v>2020</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>81</v>
-      </c>
-      <c r="C21">
-        <v>117</v>
-      </c>
-      <c r="D21">
-        <v>98.75</v>
-      </c>
-      <c r="E21">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>78.83</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>118.67</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>46</v>
-      </c>
-      <c r="L21">
-        <v>20.25</v>
-      </c>
-      <c r="M21">
-        <v>10.28</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
-        <v>-0.30999999999999872</v>
-      </c>
-      <c r="O21" t="s">
-        <v>84</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
-        <v>40.81</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>93</v>
-      </c>
-      <c r="R21" t="s">
-        <v>84</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T21" t="s">
-        <v>84</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22">
-        <v>81</v>
-      </c>
-      <c r="C22">
-        <v>142</v>
-      </c>
-      <c r="D22">
-        <v>102.92</v>
-      </c>
-      <c r="E22">
-        <v>13.71</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>75.5</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>130.34</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>46</v>
-      </c>
-      <c r="L22">
-        <v>23.2</v>
-      </c>
-      <c r="M22">
-        <v>9.77</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
-        <v>3.66</v>
-      </c>
-      <c r="O22" t="s">
-        <v>84</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
-        <v>42.739999999999995</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>84</v>
-      </c>
-      <c r="R22" t="s">
-        <v>84</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T22" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>68</v>
-      </c>
-      <c r="C23">
-        <v>148</v>
-      </c>
-      <c r="D23">
-        <v>119.59</v>
-      </c>
-      <c r="E23">
-        <v>22.1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>75.39</v>
-      </c>
-      <c r="G23" s="4">
-        <v>2011</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>163.79000000000002</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23">
-        <v>73</v>
-      </c>
-      <c r="L23">
-        <v>31.67</v>
-      </c>
-      <c r="M23">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>-0.53000000000000114</v>
-      </c>
-      <c r="O23" t="s">
-        <v>84</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>63.870000000000005</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>84</v>
-      </c>
-      <c r="R23" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="T23" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>191</v>
-      </c>
-      <c r="C24">
-        <v>273</v>
-      </c>
-      <c r="D24">
-        <v>213.4</v>
-      </c>
-      <c r="E24">
-        <v>15.96</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>181.48000000000002</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>245.32</v>
-      </c>
-      <c r="I24" s="6">
-        <v>2007</v>
-      </c>
-      <c r="J24">
-        <v>11</v>
-      </c>
-      <c r="K24">
-        <v>78</v>
-      </c>
-      <c r="L24">
-        <v>27.24</v>
-      </c>
-      <c r="M24">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>-9.100000000000005</v>
-      </c>
-      <c r="O24" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="3"/>
-        <v>63.58</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>94</v>
-      </c>
-      <c r="R24" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T24">
-        <v>2007</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25">
-        <v>112</v>
-      </c>
-      <c r="C25">
-        <v>176</v>
-      </c>
-      <c r="D25">
-        <v>128.66999999999999</v>
-      </c>
-      <c r="E25">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>90.19</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>167.14999999999998</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1993</v>
-      </c>
-      <c r="J25">
-        <v>11</v>
-      </c>
-      <c r="K25">
-        <v>23</v>
-      </c>
-      <c r="L25">
-        <v>15.11</v>
-      </c>
-      <c r="M25">
-        <v>5.09</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>4.93</v>
-      </c>
-      <c r="O25" t="s">
-        <v>84</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="3"/>
-        <v>25.29</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>84</v>
-      </c>
-      <c r="R25" t="s">
-        <v>84</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" t="s">
-        <v>84</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>102</v>
+        <v>22.64</v>
+      </c>
+      <c r="S48">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2565,33 +4278,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E2C26-5F7C-4753-8206-EC4ED7AEF980}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/butterfly.date.outlier.notes.xlsx
+++ b/data/butterfly.date.outlier.notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhamo\Documents\git\nc-butterfly-phenology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C384A6E-6544-4033-92DB-AEAE9AC0CA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D358B31-370C-451E-BF8B-A28A7D304576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" activeTab="1" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
   </bookViews>
   <sheets>
     <sheet name="notes by species" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="184">
   <si>
     <t>Species</t>
   </si>
@@ -407,21 +407,9 @@
     <t>2020 - abundance of sightings between the 100 and 200 mark</t>
   </si>
   <si>
-    <t>5 species-years have some iteration of the following as a cause - "2020 - a concentration of high abundance sighting days later in the year"</t>
-  </si>
-  <si>
-    <t>more likely to be unusually late (16 species-years) than unusually early (7 species-years)</t>
-  </si>
-  <si>
     <t>2017 and 2020 were years that frequently had unusually high cumulative abundance across species. Was there a crop of bioblitzes that happened later in the year or something?</t>
   </si>
   <si>
-    <t>Seems more to do with the absence of expected concentrated sightings (17 species years), compared to the presence of unusually concentrated sightings (15 species years) if that makes sense</t>
-  </si>
-  <si>
-    <t>there are instances where there are simply unusually early or late sightings that year (5 species years)</t>
-  </si>
-  <si>
     <t>Anthocharis midea</t>
   </si>
   <si>
@@ -537,6 +525,69 @@
   </si>
   <si>
     <t>18, 14, 24</t>
+  </si>
+  <si>
+    <t>2017 - sightings start a little earlier, but it's overall not dramatically earlier compared to other years</t>
+  </si>
+  <si>
+    <t>2012 - there's generally fewer concentrated sightings later in the year</t>
+  </si>
+  <si>
+    <t>1994 - sightings start later in the year, with relatively few sightings overall</t>
+  </si>
+  <si>
+    <t>2007 - general lack of sightings around the 300 mark? But that is not exclusive to this year</t>
+  </si>
+  <si>
+    <t>2012 - sightings start early</t>
+  </si>
+  <si>
+    <t>2000 - observations generally start early, but not dramatically sow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 - generally fewer sightings later in the year, but not dramatically so. </t>
+  </si>
+  <si>
+    <t>2009 - a general lack of observations clustered around the 100 mark, but it's not dramatic</t>
+  </si>
+  <si>
+    <t>2006 - a concentration of high abundance sighting days later in the year</t>
+  </si>
+  <si>
+    <t>2005 - a general lack of a concentration of sightings earlier in the year</t>
+  </si>
+  <si>
+    <t>I use the term "sightings" to refer to each point. A single point is an outing, with the size representing the number of outings on that day</t>
+  </si>
+  <si>
+    <t>1997, 2015 - broadly fewer sightings concentrated earlier in the year, but not dramatically so</t>
+  </si>
+  <si>
+    <t>2000 - sightings end later</t>
+  </si>
+  <si>
+    <t>2001 - fewer sightings concentrated closer to the 100 jd mark</t>
+  </si>
+  <si>
+    <t>2019 - generally fewer sightings concentrated towards the 100 mark</t>
+  </si>
+  <si>
+    <t>2012, 2015 - general lack of sightings concentrated earlier in the year</t>
+  </si>
+  <si>
+    <t>2013, 2015 - general lack of sightings concentrated earlier in the year</t>
+  </si>
+  <si>
+    <t>1993 - a concentration of sightings late in the year, but it's not especially dramatic</t>
+  </si>
+  <si>
+    <t>there are instances where there are simply unusually early or late sightings that year (&gt;5 species years)</t>
+  </si>
+  <si>
+    <t>more likely to be unusually late (28 species-years) than unusually early (14 species-years)</t>
+  </si>
+  <si>
+    <t>6 species-years have some iteration of the following as a hypothesized cause - "2020 - a concentration of high abundance sighting days later in the year"</t>
   </si>
 </sst>
 </file>
@@ -916,11 +967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81EFF3C-CDDE-41B0-A824-6179CE9B7230}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,13 +985,14 @@
     <col min="7" max="7" width="13" style="4" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="21.90625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="17.81640625" customWidth="1"/>
-    <col min="13" max="13" width="17.36328125" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" customWidth="1"/>
-    <col min="16" max="17" width="25.1796875" customWidth="1"/>
-    <col min="18" max="19" width="8.7265625" customWidth="1"/>
-    <col min="20" max="20" width="20.81640625" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="25.1796875" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="20.81640625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="11.453125" style="4" customWidth="1"/>
     <col min="22" max="22" width="25.6328125" customWidth="1"/>
     <col min="23" max="23" width="8.7265625" style="6"/>
@@ -969,7 +1021,7 @@
         <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>81</v>
@@ -978,7 +1030,7 @@
         <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>70</v>
@@ -1054,7 +1106,7 @@
         <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -1172,7 +1224,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -1232,10 +1284,19 @@
       <c r="S4" t="s">
         <v>84</v>
       </c>
+      <c r="U4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="V4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>122</v>
@@ -1295,6 +1356,15 @@
       <c r="S5">
         <v>2020</v>
       </c>
+      <c r="U5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1373,7 +1443,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>85</v>
@@ -1433,10 +1503,19 @@
       <c r="S7">
         <v>2017</v>
       </c>
+      <c r="U7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>89</v>
@@ -1496,10 +1575,19 @@
       <c r="S8" t="s">
         <v>84</v>
       </c>
+      <c r="U8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>43</v>
@@ -1559,6 +1647,12 @@
       <c r="S9" t="s">
         <v>84</v>
       </c>
+      <c r="U9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1669,7 +1763,7 @@
         <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L11">
         <v>16</v>
@@ -1862,7 +1956,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>105</v>
@@ -1920,12 +2014,21 @@
         <v>71.36</v>
       </c>
       <c r="S14" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
+        <v>84</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>92</v>
@@ -1983,7 +2086,13 @@
         <v>95.45</v>
       </c>
       <c r="S15" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -2010,7 +2119,7 @@
         <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -2141,7 +2250,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -2170,10 +2279,10 @@
         <v>204.17</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -2201,10 +2310,19 @@
       <c r="S18">
         <v>2020</v>
       </c>
+      <c r="U18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B19">
         <v>92</v>
@@ -2262,7 +2380,16 @@
         <v>74.41</v>
       </c>
       <c r="S19" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" t="s">
+        <v>84</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
@@ -2342,7 +2469,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>94</v>
@@ -2402,6 +2529,12 @@
       <c r="S21">
         <v>2017</v>
       </c>
+      <c r="U21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -2555,7 +2688,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B24">
         <v>131</v>
@@ -2618,10 +2751,19 @@
       <c r="T24" t="s">
         <v>84</v>
       </c>
+      <c r="U24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V24" t="s">
+        <v>84</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B25">
         <v>132</v>
@@ -2681,10 +2823,19 @@
       <c r="S25">
         <v>2010</v>
       </c>
+      <c r="U25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V25" t="s">
+        <v>84</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B26">
         <v>115</v>
@@ -2744,6 +2895,15 @@
       <c r="S26">
         <v>2014</v>
       </c>
+      <c r="U26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V26" t="s">
+        <v>84</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -2822,7 +2982,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28">
         <v>122</v>
@@ -2882,6 +3042,15 @@
       <c r="S28">
         <v>2009</v>
       </c>
+      <c r="U28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V28" t="s">
+        <v>84</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -2960,7 +3129,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -3020,6 +3189,12 @@
       <c r="S30">
         <v>2000</v>
       </c>
+      <c r="U30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -3398,7 +3573,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>89</v>
@@ -3458,6 +3633,12 @@
       <c r="S36">
         <v>2020</v>
       </c>
+      <c r="U36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -3536,7 +3717,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B38">
         <v>132</v>
@@ -3596,10 +3777,19 @@
       <c r="S38">
         <v>2010</v>
       </c>
+      <c r="U38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V38" t="s">
+        <v>84</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B39">
         <v>31</v>
@@ -3628,10 +3818,10 @@
         <v>121.84</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K39" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -3659,10 +3849,19 @@
       <c r="S39">
         <v>2010</v>
       </c>
+      <c r="U39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V39" t="s">
+        <v>84</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B40">
         <v>37</v>
@@ -3691,10 +3890,10 @@
         <v>123.73</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L40">
         <v>15</v>
@@ -3720,7 +3919,16 @@
         <v>68.37</v>
       </c>
       <c r="S40" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V40" t="s">
+        <v>84</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
@@ -3757,7 +3965,7 @@
         <v>87</v>
       </c>
       <c r="K41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L41">
         <v>10</v>
@@ -3878,7 +4086,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -3938,10 +4146,19 @@
       <c r="S43">
         <v>2010</v>
       </c>
+      <c r="U43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V43" t="s">
+        <v>84</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B44">
         <v>85</v>
@@ -4001,10 +4218,19 @@
       <c r="S44">
         <v>2020</v>
       </c>
+      <c r="U44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V44" t="s">
+        <v>84</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B45">
         <v>114</v>
@@ -4064,10 +4290,16 @@
       <c r="S45" t="s">
         <v>84</v>
       </c>
+      <c r="U45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B46">
         <v>93</v>
@@ -4127,6 +4359,15 @@
       <c r="S46">
         <v>2010</v>
       </c>
+      <c r="U46" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -4205,7 +4446,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <v>127</v>
@@ -4264,6 +4505,12 @@
       </c>
       <c r="S48">
         <v>2010</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="W48" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4276,37 +4523,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E2C26-5F7C-4753-8206-EC4ED7AEF980}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/butterfly.date.outlier.notes.xlsx
+++ b/data/butterfly.date.outlier.notes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhamo\Documents\git\nc-butterfly-phenology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D358B31-370C-451E-BF8B-A28A7D304576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F858A775-773A-4395-91F1-5925F862D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" activeTab="1" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
   </bookViews>
   <sheets>
     <sheet name="notes by species" sheetId="2" r:id="rId1"/>
-    <sheet name="general notes" sheetId="3" r:id="rId2"/>
-    <sheet name="notes by year" sheetId="1" r:id="rId3"/>
+    <sheet name="notes by year" sheetId="1" r:id="rId2"/>
+    <sheet name="general notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="169">
   <si>
     <t>Species</t>
   </si>
@@ -47,75 +47,33 @@
     <t>Abaeis nicippe</t>
   </si>
   <si>
-    <t>Total abundance</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>First date</t>
-  </si>
-  <si>
-    <t>Last Date</t>
-  </si>
-  <si>
-    <t>Abundance range is 13 - 126. Could cutoff at 42, but for at least one it may have to do with when the observations start for that year</t>
-  </si>
-  <si>
     <t>Junonia coenia</t>
   </si>
   <si>
-    <t>To me, this looks relatively consistent, with maybe one potential outlier date</t>
-  </si>
-  <si>
     <t>Ancyloxypha numitor</t>
   </si>
   <si>
-    <t xml:space="preserve">To me, this looks relatively consistent, with maybe 3 potential years that are noticeably a bit later. </t>
-  </si>
-  <si>
     <t>Libytheana carinenta</t>
   </si>
   <si>
-    <t xml:space="preserve">Potentially a bit early? </t>
-  </si>
-  <si>
-    <t>potentially a bit late</t>
-  </si>
-  <si>
     <t>Cupido comyntas</t>
   </si>
   <si>
     <t>Papilio glaucus</t>
   </si>
   <si>
-    <t>Appears relatively consistent</t>
-  </si>
-  <si>
     <t>Phoebis sennae</t>
   </si>
   <si>
-    <t>Far later, dates start late</t>
-  </si>
-  <si>
     <t>Pieris rapae</t>
   </si>
   <si>
-    <t>potentially a bit earlier. Otherwise appears relatively consistent</t>
-  </si>
-  <si>
     <t>Eurytides marcellus</t>
   </si>
   <si>
     <t>Limenitis arthemis astyanax</t>
   </si>
   <si>
-    <t>a little bit later</t>
-  </si>
-  <si>
-    <t>quite a bit later</t>
-  </si>
-  <si>
     <t>Vanessa virginiensis</t>
   </si>
   <si>
@@ -128,9 +86,6 @@
     <t>Erynnis juvenalis</t>
   </si>
   <si>
-    <t>appears relatively consistent</t>
-  </si>
-  <si>
     <t>Hylephila phyleus</t>
   </si>
   <si>
@@ -143,24 +98,15 @@
     <t>Pompeius verna</t>
   </si>
   <si>
-    <t xml:space="preserve">this time is later, maybe due to a concentration of observations approaching the 300 mark. </t>
-  </si>
-  <si>
     <t>Atalopedes campestris</t>
   </si>
   <si>
-    <t>a bit later</t>
-  </si>
-  <si>
     <t>Colias eurytheme</t>
   </si>
   <si>
     <t>Papilio troilus</t>
   </si>
   <si>
-    <t>appears relatively consistent but 2020 is a bit later</t>
-  </si>
-  <si>
     <t>Cyllopsis gemma</t>
   </si>
   <si>
@@ -170,84 +116,9 @@
     <t>Celastrina neglecta</t>
   </si>
   <si>
-    <t>appears a bit early (spring azure mis-id?)</t>
-  </si>
-  <si>
     <t>Panoquina ocola</t>
   </si>
   <si>
-    <t>quite a bit later. There's a concentration of observations around the 300 mark.</t>
-  </si>
-  <si>
-    <t>Chlosyne nycteis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are only 2 years. I suggest removing this one. </t>
-  </si>
-  <si>
-    <t>Abundance Range</t>
-  </si>
-  <si>
-    <t>13-126</t>
-  </si>
-  <si>
-    <t>20-153</t>
-  </si>
-  <si>
-    <t>11 to 50</t>
-  </si>
-  <si>
-    <t>12 to 64</t>
-  </si>
-  <si>
-    <t>24 to 150</t>
-  </si>
-  <si>
-    <t>21 to 156</t>
-  </si>
-  <si>
-    <t>16 to 133</t>
-  </si>
-  <si>
-    <t>15 to 64</t>
-  </si>
-  <si>
-    <t>10 to 29</t>
-  </si>
-  <si>
-    <t>10 to 72</t>
-  </si>
-  <si>
-    <t>22 to 94</t>
-  </si>
-  <si>
-    <t>10 to 82</t>
-  </si>
-  <si>
-    <t>10 to 43</t>
-  </si>
-  <si>
-    <t>14 to 125</t>
-  </si>
-  <si>
-    <t>11 to 53</t>
-  </si>
-  <si>
-    <t>10 to 38</t>
-  </si>
-  <si>
-    <t>15 to 72</t>
-  </si>
-  <si>
-    <t>19 to 62</t>
-  </si>
-  <si>
-    <t>16 to 52</t>
-  </si>
-  <si>
-    <t>10 to 46</t>
-  </si>
-  <si>
     <t>Lowest Abundance</t>
   </si>
   <si>
@@ -588,6 +459,90 @@
   </si>
   <si>
     <t>6 species-years have some iteration of the following as a hypothesized cause - "2020 - a concentration of high abundance sighting days later in the year"</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>early/late</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>CarolinaLeps archive notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarch pop was precipitously low this year (lowest since the 1970s), due to cold stormy weather, herbicide use, and logging in overwintering sites (via shared article, https://www.washingtonpost.com/wp-dyn/articles/A45376-2005Feb22.html). However, CL user Paul Cheribidi dispues this, arguing that 2005's overwintering pop was normal (https://lists.duke.edu/sympa/arc/carolinaleps/2005-02/msg00031.html) </t>
+  </si>
+  <si>
+    <t>LeGrand calls this year one of the "latest spring seasons" for butterflies (https://lists.duke.edu/sympa/arc/carolinaleps/2005-03/msg00043.html)</t>
+  </si>
+  <si>
+    <t>LeGrand calls this year one of the "latest spring seasons" for butterflies (https://lists.duke.edu/sympa/arc/carolinaleps/2005-03/msg00043.html). CL user Randy Emmitt reports seeing several winter form sleepy oranges on April 23 (https://lists.duke.edu/sympa/arc/carolinaleps/2005-04/msg00109.html). A butterfly count at raven rock state park on August 18th included 7 observers across 4 parties, and spotted over 500 sleepy oranges (https://lists.duke.edu/sympa/arc/carolinaleps/2005-08/msg00098.html)</t>
+  </si>
+  <si>
+    <t>This year, there were CBC trips on Aug 26, Aug 27, Sept 16 - check how observers are compiled (https://lists.duke.edu/sympa/arc/carolinaleps/2006-08/msg00015.html)</t>
+  </si>
+  <si>
+    <t>on 15 march, there was a discussion in the listserve concerning how summer azures can be spotted earlier than the name suggests (https://lists.duke.edu/sympa/arc/carolinaleps/2011-03/msg00067.html) (potential bias? I might suggest discarding this species entirely - lots of folks base the ID on the time of year, albeit recklessly)</t>
+  </si>
+  <si>
+    <t>at this point, I discovered that you have to hit "continue search" to see all possible search result in the listserv, as opposed to the page max</t>
+  </si>
+  <si>
+    <t>Appears to genuinely start early, with a mid-jan start (https://lists.duke.edu/sympa/arc/carolinaleps/2012-01/msg00039.html). Note 12 participants in 7 parties on Aug 12 for Lake Norman butterfly count (https://lists.duke.edu/sympa/arc/carolinaleps/2012-08/msg00051.html)</t>
+  </si>
+  <si>
+    <t>April 2, LeGrand reports a suspicious lack of Juvenal's duskywings, even if spring is "10-14" days later than usual (https://lists.duke.edu/sympa/arc/carolinaleps/2013-04/msg00005.html). LeGrand reiterates the surprising lack of Juvenal's on Apr 6 (https://lists.duke.edu/sympa/arc/carolinaleps/2013-04/msg00012.html)</t>
+  </si>
+  <si>
+    <t>at least at the coast, this was anecdotally reported to be a "bad year" for Polygonia (https://lists.duke.edu/sympa/arc/carolinaleps/2013-09/msg00081.html)</t>
+  </si>
+  <si>
+    <t>Question marks notably absent in the mountains on Aug 9-10 surveys (https://lists.duke.edu/sympa/arc/carolinaleps/2015-08/msg00052.html), (https://lists.duke.edu/sympa/arc/carolinaleps/2015-08/msg00053.html)</t>
+  </si>
+  <si>
+    <t>Will Cook notes a sighting as being "pretty early" (https://lists.duke.edu/sympa/arc/carolinaleps/2017-02/msg00006.html)</t>
+  </si>
+  <si>
+    <t>Note Durham NABA count on Aug 20 (https://lists.duke.edu/sympa/arc/carolinaleps/2017-08/msg00117.html)</t>
+  </si>
+  <si>
+    <t>Note Durham NABA count on Aug 18, with seven parties (https://lists.duke.edu/sympa/arc/carolinaleps/2019-08/msg00075.html)</t>
+  </si>
+  <si>
+    <t>Richard Stickney notes a cabbage white sighting as being especially early (https://lists.duke.edu/sympa/arc/carolinaleps/2019-02/msg00008.html)</t>
+  </si>
+  <si>
+    <t>Note Orange Co NABA count on Aug 9 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00080.html)</t>
+  </si>
+  <si>
+    <t>Note Orange Co NABA count on Aug 9 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00080.html), Haw river count on Aug 11 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00074.html), Wake county NABA count on Aug 17 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00109.html)</t>
+  </si>
+  <si>
+    <t>Note Orange Co NABA count on Aug 9 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00080.html), Haw river count on Aug 11 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00074.html), Wake county NABA count on Aug 17 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00109.html), Duke NABA count on Aug 16 (https://lists.duke.edu/sympa/arc/carolinaleps/2020-08/msg00099.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry LeGrand calls it the worst year in a decade for migratory species like ocola (https://lists.duke.edu/sympa/arc/carolinaleps/2007-09/msg00022.html), reiterated here (https://lists.duke.edu/sympa/arc/carolinaleps/2007-08/msg00073.html), here (https://lists.duke.edu/sympa/arc/carolinaleps/2007-08/msg00049.html), and here (https://lists.duke.edu/sympa/arc/carolinaleps/2007-08/msg00030.html)., included in Durham NABA count August 19 (https://lists.duke.edu/sympa/arc/carolinaleps/2007-08/msg00065.html) and Duke garden bfly walk August 18 which included 25 observers (https://lists.duke.edu/sympa/arc/carolinaleps/2007-08/msg00054.html) </t>
+  </si>
+  <si>
+    <t>Salman Abdulali feels that "dark swallowtails... are more abundant this June than in previous Junes" (https://lists.duke.edu/sympa/arc/carolinaleps/2009-06/msg00110.html) and reports first pipevine on July 23 (Pitt Co) (https://lists.duke.edu/sympa/arc/carolinaleps/2009-07/msg00100.html). Gail Lankford reports an unusually low number of pipevines based on their previous observations on June 24 (https://lists.duke.edu/sympa/arc/carolinaleps/2009-07/msg00013.html). Dennis Burnette mentions a swallowtail population "crash" in the Piedmont, with possibly evidence of recover on on June 16 (https://lists.duke.edu/sympa/arc/carolinaleps/2009-07/msg00065.html). NABA durham count conducted August 16, including 6 parties (https://lists.duke.edu/sympa/arc/carolinaleps/2009-08/msg00078.html). LeGrand notes unusual lack of pipevine during Wake co. bfly count, Aug 7 (https://lists.duke.edu/sympa/arc/carolinaleps/2009-08/msg00092.html)</t>
+  </si>
+  <si>
+    <t>Lake Norman NABA count on Aug 12 with seven parties (https://lists.duke.edu/sympa/arc/carolinaleps/2012-08/msg00051.html)</t>
+  </si>
+  <si>
+    <t>data notes</t>
+  </si>
+  <si>
+    <t>Durham NABA party appears to be counted as a single party</t>
+  </si>
+  <si>
+    <t>appear to be multiple participants listed separately for the OC count</t>
+  </si>
+  <si>
+    <t>CL archive starts in 2003 - need to consult HL for earlier years</t>
   </si>
 </sst>
 </file>
@@ -643,10 +598,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -968,10 +922,10 @@
   <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,20 +936,19 @@
     <col min="4" max="4" width="14.54296875" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="6" max="6" width="16.90625" customWidth="1"/>
-    <col min="7" max="7" width="13" style="4" customWidth="1"/>
-    <col min="8" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.36328125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="25.1796875" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="20.81640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="9" width="13" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="17.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="17" width="25.1796875" customWidth="1"/>
+    <col min="18" max="19" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="20.81640625" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" style="3" customWidth="1"/>
     <col min="22" max="22" width="25.6328125" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="6"/>
+    <col min="23" max="23" width="8.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
@@ -1003,73 +956,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>83</v>
+        <v>38</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -1092,21 +1045,21 @@
         <f>D2-(2*E2)</f>
         <v>20.769999999999996</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I2">
         <f>D2+(2*E2)</f>
         <v>207.64999999999998</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>85</v>
+      <c r="J2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -1125,7 +1078,7 @@
         <v>-0.56000000000000227</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R2">
         <f>N2+(2*O2)</f>
@@ -1135,21 +1088,21 @@
         <v>2020</v>
       </c>
       <c r="T2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>126</v>
@@ -1167,17 +1120,17 @@
         <f t="shared" ref="F3:F48" si="0">D3-(2*E3)</f>
         <v>103.98</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>84</v>
+      <c r="G3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I48" si="1">D3+(2*E3)</f>
         <v>197.82</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>2019</v>
       </c>
       <c r="K3">
@@ -1200,31 +1153,31 @@
         <v>1.4699999999999989</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R48" si="3">N3+(2*O3)</f>
         <v>52.15</v>
       </c>
       <c r="S3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>104</v>
+        <v>45</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -1242,7 +1195,7 @@
         <f t="shared" si="0"/>
         <v>58.900000000000006</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>2017</v>
       </c>
       <c r="H4">
@@ -1252,11 +1205,11 @@
         <f t="shared" si="1"/>
         <v>84.78</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>84</v>
+      <c r="J4" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1275,28 +1228,28 @@
         <v>8.620000000000001</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
         <v>27.220000000000002</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>163</v>
+        <v>41</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="V4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>122</v>
@@ -1314,17 +1267,17 @@
         <f t="shared" si="0"/>
         <v>113.48</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>84</v>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
         <v>172.52</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>2020</v>
       </c>
       <c r="K5">
@@ -1347,7 +1300,7 @@
         <v>1.5599999999999987</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
@@ -1356,19 +1309,19 @@
       <c r="S5">
         <v>2020</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>84</v>
+      <c r="U5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>109</v>
+        <v>41</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>114</v>
@@ -1386,21 +1339,21 @@
         <f t="shared" si="0"/>
         <v>108.69</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>84</v>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
         <v>225.73000000000002</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>84</v>
+      <c r="J6" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>15</v>
@@ -1419,31 +1372,31 @@
         <v>14.02</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
         <v>69.98</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>98</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>118</v>
+        <v>55</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>85</v>
@@ -1461,17 +1414,17 @@
         <f t="shared" si="0"/>
         <v>81.050000000000011</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>84</v>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
         <v>133.85</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>2009</v>
       </c>
       <c r="K7">
@@ -1494,7 +1447,7 @@
         <v>3.7199999999999989</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
@@ -1503,19 +1456,19 @@
       <c r="S7">
         <v>2017</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>84</v>
+      <c r="U7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>89</v>
@@ -1533,17 +1486,17 @@
         <f t="shared" si="0"/>
         <v>53.140000000000015</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>84</v>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
         <v>205.46</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>2006</v>
       </c>
       <c r="K8">
@@ -1566,28 +1519,28 @@
         <v>6.25</v>
       </c>
       <c r="Q8" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
         <v>43.93</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>171</v>
+        <v>41</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>43</v>
@@ -1605,7 +1558,7 @@
         <f t="shared" si="0"/>
         <v>49.069999999999993</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>2017</v>
       </c>
       <c r="H9">
@@ -1615,11 +1568,11 @@
         <f t="shared" si="1"/>
         <v>87.59</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>84</v>
+      <c r="J9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -1638,25 +1591,25 @@
         <v>8.59</v>
       </c>
       <c r="Q9" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
         <v>20.07</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>68</v>
@@ -1674,7 +1627,7 @@
         <f t="shared" si="0"/>
         <v>75.39</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>2011</v>
       </c>
       <c r="H10">
@@ -1684,11 +1637,11 @@
         <f t="shared" si="1"/>
         <v>163.79000000000002</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>84</v>
+      <c r="J10" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1707,31 +1660,31 @@
         <v>-0.53000000000000114</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
         <v>63.870000000000005</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>99</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>121</v>
+        <v>56</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>68</v>
@@ -1749,21 +1702,21 @@
         <f t="shared" si="0"/>
         <v>57.800000000000004</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>84</v>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
         <v>143.28</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>88</v>
+      <c r="J11" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="L11">
         <v>16</v>
@@ -1782,31 +1735,31 @@
         <v>5.6099999999999994</v>
       </c>
       <c r="Q11" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
         <v>60.25</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="T11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>86</v>
@@ -1824,7 +1777,7 @@
         <f t="shared" si="0"/>
         <v>86.11999999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2012</v>
       </c>
       <c r="H12">
@@ -1834,11 +1787,11 @@
         <f t="shared" si="1"/>
         <v>128.51999999999998</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>84</v>
+      <c r="J12" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>24</v>
@@ -1857,7 +1810,7 @@
         <v>8.1899999999999977</v>
       </c>
       <c r="Q12" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
@@ -1867,21 +1820,21 @@
         <v>2020</v>
       </c>
       <c r="T12" t="s">
-        <v>84</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>108</v>
+        <v>41</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>109</v>
+        <v>41</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>81</v>
@@ -1899,21 +1852,21 @@
         <f t="shared" si="0"/>
         <v>78.83</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>84</v>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
         <v>118.67</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>84</v>
+      <c r="J13" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -1932,31 +1885,31 @@
         <v>-0.30999999999999872</v>
       </c>
       <c r="Q13" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
         <v>40.81</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>84</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>105</v>
@@ -1974,17 +1927,17 @@
         <f t="shared" si="0"/>
         <v>81.699999999999989</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>84</v>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
         <v>221.7</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>2005</v>
       </c>
       <c r="K14">
@@ -2007,28 +1960,28 @@
         <v>-0.48000000000000398</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
         <v>71.36</v>
       </c>
       <c r="S14" t="s">
-        <v>148</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>172</v>
+        <v>41</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>92</v>
@@ -2046,7 +1999,7 @@
         <f t="shared" si="0"/>
         <v>93.62</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2012</v>
       </c>
       <c r="H15">
@@ -2056,11 +2009,11 @@
         <f t="shared" si="1"/>
         <v>154.1</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>84</v>
+      <c r="J15" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <v>18</v>
@@ -2079,25 +2032,25 @@
         <v>6.769999999999996</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
         <v>95.45</v>
       </c>
       <c r="S15" t="s">
-        <v>149</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>84</v>
+        <v>106</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>97</v>
@@ -2115,21 +2068,21 @@
         <f t="shared" si="0"/>
         <v>98.59</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>86</v>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
         <v>208.23</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>84</v>
+      <c r="J16" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -2148,34 +2101,34 @@
         <v>3.4600000000000009</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
         <v>49.42</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="T16" t="s">
-        <v>84</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>116</v>
+        <v>41</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>67</v>
@@ -2193,17 +2146,17 @@
         <f t="shared" si="0"/>
         <v>65.02</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>84</v>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
         <v>95.14</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>2013</v>
       </c>
       <c r="K17">
@@ -2226,31 +2179,31 @@
         <v>5.4399999999999995</v>
       </c>
       <c r="Q17" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
         <v>36.880000000000003</v>
       </c>
       <c r="S17" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s">
-        <v>84</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>115</v>
+        <v>41</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -2268,21 +2221,21 @@
         <f t="shared" si="0"/>
         <v>110.53</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>84</v>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
         <v>204.17</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>151</v>
+      <c r="J18" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -2301,7 +2254,7 @@
         <v>3.1599999999999984</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
@@ -2310,19 +2263,19 @@
       <c r="S18">
         <v>2020</v>
       </c>
-      <c r="U18" s="4" t="s">
-        <v>84</v>
+      <c r="U18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>92</v>
@@ -2340,17 +2293,17 @@
         <f t="shared" si="0"/>
         <v>77.590000000000018</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>84</v>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
         <v>220.63</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>1994</v>
       </c>
       <c r="K19">
@@ -2373,28 +2326,28 @@
         <v>-9.2700000000000031</v>
       </c>
       <c r="Q19" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
         <v>74.41</v>
       </c>
       <c r="S19" t="s">
-        <v>148</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>165</v>
+        <v>41</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>66</v>
@@ -2412,7 +2365,7 @@
         <f t="shared" si="0"/>
         <v>70.37</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>2011</v>
       </c>
       <c r="H20">
@@ -2422,11 +2375,11 @@
         <f t="shared" si="1"/>
         <v>110.97</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>84</v>
+      <c r="J20" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -2445,7 +2398,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="Q20" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R20">
         <f t="shared" si="3"/>
@@ -2455,21 +2408,21 @@
         <v>2017</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="V20" t="s">
-        <v>84</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>94</v>
@@ -2487,7 +2440,7 @@
         <f t="shared" si="0"/>
         <v>94.42</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>2007</v>
       </c>
       <c r="H21">
@@ -2497,11 +2450,11 @@
         <f t="shared" si="1"/>
         <v>135.94</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>84</v>
+      <c r="J21" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L21">
         <v>11</v>
@@ -2520,7 +2473,7 @@
         <v>-3.3399999999999963</v>
       </c>
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R21">
         <f t="shared" si="3"/>
@@ -2529,16 +2482,16 @@
       <c r="S21">
         <v>2017</v>
       </c>
-      <c r="U21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>84</v>
+      <c r="U21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>155</v>
@@ -2556,21 +2509,21 @@
         <f t="shared" si="0"/>
         <v>152.16999999999999</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>84</v>
+      <c r="G22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
         <v>224.41</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>84</v>
+      <c r="J22" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L22">
         <v>14</v>
@@ -2589,7 +2542,7 @@
         <v>-9.36</v>
       </c>
       <c r="Q22" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R22">
         <f t="shared" si="3"/>
@@ -2599,21 +2552,21 @@
         <v>2020</v>
       </c>
       <c r="T22" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>103</v>
@@ -2631,17 +2584,17 @@
         <f t="shared" si="0"/>
         <v>96.9</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>84</v>
+      <c r="G23" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
         <v>200.02</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>2005</v>
       </c>
       <c r="K23">
@@ -2664,7 +2617,7 @@
         <v>-2.1999999999999957</v>
       </c>
       <c r="Q23" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R23">
         <f t="shared" si="3"/>
@@ -2674,21 +2627,21 @@
         <v>2020</v>
       </c>
       <c r="T23" t="s">
-        <v>84</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V23">
         <v>2005</v>
       </c>
-      <c r="W23" s="6" t="s">
-        <v>103</v>
+      <c r="W23" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B24">
         <v>131</v>
@@ -2706,21 +2659,21 @@
         <f t="shared" si="0"/>
         <v>130.54</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>84</v>
+      <c r="G24" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
         <v>254.46</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>84</v>
+      <c r="J24" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L24">
         <v>14</v>
@@ -2739,7 +2692,7 @@
         <v>-0.78000000000000114</v>
       </c>
       <c r="Q24" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R24">
         <f t="shared" si="3"/>
@@ -2749,21 +2702,21 @@
         <v>2020</v>
       </c>
       <c r="T24" t="s">
-        <v>84</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V24" t="s">
-        <v>84</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B25">
         <v>132</v>
@@ -2781,17 +2734,17 @@
         <f t="shared" si="0"/>
         <v>110.72999999999999</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>84</v>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
         <v>195.41</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>2000</v>
       </c>
       <c r="K25">
@@ -2814,7 +2767,7 @@
         <v>2.5299999999999994</v>
       </c>
       <c r="Q25" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
@@ -2823,19 +2776,19 @@
       <c r="S25">
         <v>2010</v>
       </c>
-      <c r="U25" s="4" t="s">
-        <v>84</v>
+      <c r="U25" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V25" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>175</v>
+        <v>41</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="B26">
         <v>115</v>
@@ -2853,21 +2806,21 @@
         <f t="shared" si="0"/>
         <v>110.53999999999999</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>84</v>
+      <c r="G26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
         <v>170.22</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>84</v>
+      <c r="J26" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L26">
         <v>10</v>
@@ -2886,7 +2839,7 @@
         <v>6.24</v>
       </c>
       <c r="Q26" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
@@ -2895,19 +2848,19 @@
       <c r="S26">
         <v>2014</v>
       </c>
-      <c r="U26" s="4" t="s">
-        <v>84</v>
+      <c r="U26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V26" t="s">
-        <v>84</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -2925,17 +2878,17 @@
         <f t="shared" si="0"/>
         <v>15.469999999999999</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>84</v>
+      <c r="G27" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
         <v>155.31</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>2000</v>
       </c>
       <c r="K27">
@@ -2958,7 +2911,7 @@
         <v>-1.629999999999999</v>
       </c>
       <c r="Q27" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
@@ -2970,19 +2923,19 @@
       <c r="T27">
         <v>2013</v>
       </c>
-      <c r="U27" s="4" t="s">
-        <v>106</v>
+      <c r="U27" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="V27" t="s">
-        <v>105</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>107</v>
+        <v>62</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>122</v>
@@ -3000,17 +2953,17 @@
         <f t="shared" si="0"/>
         <v>94.860000000000014</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>84</v>
+      <c r="G28" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
         <v>194.62</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>2001</v>
       </c>
       <c r="K28">
@@ -3033,7 +2986,7 @@
         <v>5.48</v>
       </c>
       <c r="Q28" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R28">
         <f t="shared" si="3"/>
@@ -3042,19 +2995,19 @@
       <c r="S28">
         <v>2009</v>
       </c>
-      <c r="U28" s="4" t="s">
-        <v>84</v>
+      <c r="U28" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V28" t="s">
-        <v>84</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>176</v>
+        <v>41</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>98</v>
@@ -3072,17 +3025,17 @@
         <f t="shared" si="0"/>
         <v>93.739999999999981</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>84</v>
+      <c r="G29" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
         <v>172.54</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>2020</v>
       </c>
       <c r="K29">
@@ -3105,31 +3058,31 @@
         <v>7.5200000000000031</v>
       </c>
       <c r="Q29" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R29">
         <f t="shared" si="3"/>
         <v>75.400000000000006</v>
       </c>
       <c r="S29" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s">
-        <v>84</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V29">
         <v>2020</v>
       </c>
-      <c r="W29" s="6" t="s">
-        <v>109</v>
+      <c r="W29" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="B30">
         <v>130</v>
@@ -3147,21 +3100,21 @@
         <f t="shared" si="0"/>
         <v>128.84</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>84</v>
+      <c r="G30" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
         <v>145.28</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>84</v>
+      <c r="J30" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -3180,7 +3133,7 @@
         <v>4.24</v>
       </c>
       <c r="Q30" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R30">
         <f t="shared" si="3"/>
@@ -3189,16 +3142,16 @@
       <c r="S30">
         <v>2000</v>
       </c>
-      <c r="U30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>84</v>
+      <c r="U30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>191</v>
@@ -3216,17 +3169,17 @@
         <f t="shared" si="0"/>
         <v>181.48000000000002</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>84</v>
+      <c r="G31" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
         <v>245.32</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>2007</v>
       </c>
       <c r="K31">
@@ -3249,31 +3202,31 @@
         <v>-9.100000000000005</v>
       </c>
       <c r="Q31" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R31">
         <f t="shared" si="3"/>
         <v>63.58</v>
       </c>
       <c r="S31" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>84</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V31">
         <v>2007</v>
       </c>
-      <c r="W31" s="6" t="s">
-        <v>120</v>
+      <c r="W31" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>69</v>
@@ -3291,7 +3244,7 @@
         <f t="shared" si="0"/>
         <v>70.2</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>2017</v>
       </c>
       <c r="H32">
@@ -3301,11 +3254,11 @@
         <f t="shared" si="1"/>
         <v>111.52</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>84</v>
+      <c r="J32" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L32">
         <v>21</v>
@@ -3324,7 +3277,7 @@
         <v>10.370000000000005</v>
       </c>
       <c r="Q32" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R32">
         <f t="shared" si="3"/>
@@ -3334,21 +3287,21 @@
         <v>2017</v>
       </c>
       <c r="T32" t="s">
-        <v>84</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>110</v>
+        <v>41</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="V32" t="s">
-        <v>84</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>81</v>
@@ -3366,21 +3319,21 @@
         <f t="shared" si="0"/>
         <v>75.5</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>84</v>
+      <c r="G33" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
         <v>130.34</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>84</v>
+      <c r="J33" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -3399,31 +3352,31 @@
         <v>3.66</v>
       </c>
       <c r="Q33" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R33">
         <f t="shared" si="3"/>
         <v>42.739999999999995</v>
       </c>
       <c r="S33" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s">
-        <v>84</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V33" t="s">
-        <v>84</v>
-      </c>
-      <c r="W33" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>90</v>
@@ -3441,17 +3394,17 @@
         <f t="shared" si="0"/>
         <v>82.12</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>84</v>
+      <c r="G34" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
         <v>141.88</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>2020</v>
       </c>
       <c r="K34">
@@ -3474,7 +3427,7 @@
         <v>7.7100000000000009</v>
       </c>
       <c r="Q34" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R34">
         <f t="shared" si="3"/>
@@ -3484,21 +3437,21 @@
         <v>2017</v>
       </c>
       <c r="T34" t="s">
-        <v>84</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V34">
         <v>2020</v>
       </c>
-      <c r="W34" s="6" t="s">
-        <v>122</v>
+      <c r="W34" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>89</v>
@@ -3516,21 +3469,21 @@
         <f t="shared" si="0"/>
         <v>58.11</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>84</v>
+      <c r="G35" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
         <v>248.26999999999998</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>84</v>
+      <c r="J35" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L35">
         <v>11</v>
@@ -3549,7 +3502,7 @@
         <v>-11.559999999999995</v>
       </c>
       <c r="Q35" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R35">
         <f t="shared" si="3"/>
@@ -3559,21 +3512,21 @@
         <v>2020</v>
       </c>
       <c r="T35" t="s">
-        <v>84</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V35" t="s">
-        <v>84</v>
-      </c>
-      <c r="W35" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>89</v>
@@ -3591,7 +3544,7 @@
         <f t="shared" si="0"/>
         <v>89.73</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>2012</v>
       </c>
       <c r="H36">
@@ -3601,11 +3554,11 @@
         <f t="shared" si="1"/>
         <v>138.77000000000001</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>84</v>
+      <c r="J36" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L36">
         <v>27</v>
@@ -3624,7 +3577,7 @@
         <v>8.6700000000000017</v>
       </c>
       <c r="Q36" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R36">
         <f t="shared" si="3"/>
@@ -3633,16 +3586,16 @@
       <c r="S36">
         <v>2020</v>
       </c>
-      <c r="U36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="W36" s="6" t="s">
-        <v>84</v>
+      <c r="U36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -3660,7 +3613,7 @@
         <f t="shared" si="0"/>
         <v>44.36999999999999</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>2019</v>
       </c>
       <c r="H37">
@@ -3670,11 +3623,11 @@
         <f t="shared" si="1"/>
         <v>145.76999999999998</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>84</v>
+      <c r="J37" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L37">
         <v>15</v>
@@ -3693,7 +3646,7 @@
         <v>7.18</v>
       </c>
       <c r="Q37" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R37">
         <f t="shared" si="3"/>
@@ -3705,19 +3658,19 @@
       <c r="T37">
         <v>2019</v>
       </c>
-      <c r="U37" s="4" t="s">
-        <v>111</v>
+      <c r="U37" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="V37" t="s">
-        <v>84</v>
-      </c>
-      <c r="W37" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B38">
         <v>132</v>
@@ -3735,17 +3688,17 @@
         <f t="shared" si="0"/>
         <v>118.92</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>84</v>
+      <c r="G38" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
         <v>179.88</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>2019</v>
       </c>
       <c r="K38">
@@ -3768,7 +3721,7 @@
         <v>7.2299999999999986</v>
       </c>
       <c r="Q38" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R38">
         <f t="shared" si="3"/>
@@ -3777,19 +3730,19 @@
       <c r="S38">
         <v>2010</v>
       </c>
-      <c r="U38" s="4" t="s">
-        <v>84</v>
+      <c r="U38" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V38" t="s">
-        <v>84</v>
-      </c>
-      <c r="W38" s="6" t="s">
-        <v>177</v>
+        <v>41</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>31</v>
@@ -3807,21 +3760,21 @@
         <f t="shared" si="0"/>
         <v>30.639999999999993</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>84</v>
+      <c r="G39" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
         <v>121.84</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>152</v>
+      <c r="J39" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -3840,7 +3793,7 @@
         <v>1.6600000000000001</v>
       </c>
       <c r="Q39" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R39">
         <f t="shared" si="3"/>
@@ -3849,19 +3802,19 @@
       <c r="S39">
         <v>2010</v>
       </c>
-      <c r="U39" s="4" t="s">
-        <v>84</v>
+      <c r="U39" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V39" t="s">
-        <v>84</v>
-      </c>
-      <c r="W39" s="6" t="s">
-        <v>178</v>
+        <v>41</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="B40">
         <v>37</v>
@@ -3879,21 +3832,21 @@
         <f t="shared" si="0"/>
         <v>35.850000000000009</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>84</v>
+      <c r="G40" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
         <v>123.73</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>153</v>
+      <c r="J40" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="K40" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="L40">
         <v>15</v>
@@ -3912,28 +3865,28 @@
         <v>1.7700000000000031</v>
       </c>
       <c r="Q40" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R40">
         <f t="shared" si="3"/>
         <v>68.37</v>
       </c>
       <c r="S40" t="s">
-        <v>150</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>84</v>
+        <v>107</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V40" t="s">
-        <v>84</v>
-      </c>
-      <c r="W40" s="6" t="s">
-        <v>179</v>
+        <v>41</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>132</v>
@@ -3951,21 +3904,21 @@
         <f t="shared" si="0"/>
         <v>106.05999999999999</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>84</v>
+      <c r="G41" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
         <v>197.77999999999997</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>87</v>
+      <c r="J41" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="L41">
         <v>10</v>
@@ -3984,7 +3937,7 @@
         <v>6.1000000000000014</v>
       </c>
       <c r="Q41" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R41">
         <f t="shared" si="3"/>
@@ -3994,21 +3947,21 @@
         <v>2010</v>
       </c>
       <c r="T41" t="s">
-        <v>84</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V41">
         <v>2014</v>
       </c>
-      <c r="W41" s="6" t="s">
-        <v>117</v>
+      <c r="W41" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>77</v>
@@ -4026,21 +3979,21 @@
         <f t="shared" si="0"/>
         <v>48.7</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>84</v>
+      <c r="G42" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
         <v>240.22000000000003</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>84</v>
+      <c r="J42" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L42">
         <v>10</v>
@@ -4059,7 +4012,7 @@
         <v>-3.7799999999999976</v>
       </c>
       <c r="Q42" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R42">
         <f t="shared" si="3"/>
@@ -4069,24 +4022,24 @@
         <v>2020</v>
       </c>
       <c r="T42" t="s">
-        <v>84</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V42" t="s">
-        <v>84</v>
-      </c>
-      <c r="W42" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="X42" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -4104,21 +4057,21 @@
         <f t="shared" si="0"/>
         <v>126.72999999999999</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>84</v>
+      <c r="G43" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
         <v>164.41</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>84</v>
+      <c r="J43" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L43">
         <v>10</v>
@@ -4137,7 +4090,7 @@
         <v>5.24</v>
       </c>
       <c r="Q43" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R43">
         <f t="shared" si="3"/>
@@ -4146,19 +4099,19 @@
       <c r="S43">
         <v>2010</v>
       </c>
-      <c r="U43" s="4" t="s">
-        <v>84</v>
+      <c r="U43" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V43" t="s">
-        <v>84</v>
-      </c>
-      <c r="W43" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="B44">
         <v>85</v>
@@ -4176,21 +4129,21 @@
         <f t="shared" si="0"/>
         <v>79.190000000000012</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>84</v>
+      <c r="G44" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
         <v>211.03000000000003</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>84</v>
+      <c r="J44" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L44">
         <v>13</v>
@@ -4209,7 +4162,7 @@
         <v>3.2699999999999996</v>
       </c>
       <c r="Q44" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R44">
         <f t="shared" si="3"/>
@@ -4218,19 +4171,19 @@
       <c r="S44">
         <v>2020</v>
       </c>
-      <c r="U44" s="4" t="s">
-        <v>84</v>
+      <c r="U44" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V44" t="s">
-        <v>84</v>
-      </c>
-      <c r="W44" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B45">
         <v>114</v>
@@ -4248,7 +4201,7 @@
         <f t="shared" si="0"/>
         <v>114.11</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
       <c r="H45">
@@ -4258,11 +4211,11 @@
         <f t="shared" si="1"/>
         <v>151.26999999999998</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>84</v>
+      <c r="J45" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K45" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L45">
         <v>10</v>
@@ -4281,25 +4234,25 @@
         <v>5.7400000000000011</v>
       </c>
       <c r="Q45" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R45">
         <f t="shared" si="3"/>
         <v>21.18</v>
       </c>
       <c r="S45" t="s">
-        <v>84</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="W45" s="6" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B46">
         <v>93</v>
@@ -4317,17 +4270,17 @@
         <f t="shared" si="0"/>
         <v>90.84</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>84</v>
+      <c r="G46" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
         <v>153.76</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>1993</v>
       </c>
       <c r="K46">
@@ -4350,7 +4303,7 @@
         <v>-1.2899999999999991</v>
       </c>
       <c r="Q46" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R46">
         <f t="shared" si="3"/>
@@ -4359,19 +4312,19 @@
       <c r="S46">
         <v>2010</v>
       </c>
-      <c r="U46" s="4" t="s">
-        <v>84</v>
+      <c r="U46" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V46" t="s">
-        <v>84</v>
-      </c>
-      <c r="W46" s="6" t="s">
-        <v>180</v>
+        <v>41</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>79</v>
@@ -4389,17 +4342,17 @@
         <f t="shared" si="0"/>
         <v>76.900000000000006</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>84</v>
+      <c r="G47" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
         <v>150.38</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>2014</v>
       </c>
       <c r="K47">
@@ -4422,7 +4375,7 @@
         <v>15.060000000000002</v>
       </c>
       <c r="Q47" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R47">
         <f t="shared" si="3"/>
@@ -4432,21 +4385,21 @@
         <v>2017</v>
       </c>
       <c r="T47" t="s">
-        <v>84</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="V47" t="s">
-        <v>84</v>
-      </c>
-      <c r="W47" s="6" t="s">
-        <v>113</v>
+        <v>41</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="B48">
         <v>127</v>
@@ -4464,7 +4417,7 @@
         <f t="shared" si="0"/>
         <v>129.19</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>2017</v>
       </c>
       <c r="H48">
@@ -4474,11 +4427,11 @@
         <f t="shared" si="1"/>
         <v>170.23000000000002</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>84</v>
+      <c r="J48" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="K48" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="L48">
         <v>10</v>
@@ -4497,7 +4450,7 @@
         <v>5.6</v>
       </c>
       <c r="Q48" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R48">
         <f t="shared" si="3"/>
@@ -4506,11 +4459,11 @@
       <c r="S48">
         <v>2010</v>
       </c>
-      <c r="U48" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="W48" s="6" t="s">
-        <v>84</v>
+      <c r="U48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4522,976 +4475,652 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF978CEF-4D9C-417C-A460-67F4EE090377}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1996</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>2009</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>2012</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1997</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>2013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>1997</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22">
+        <v>2015</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
+        <v>1994</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>2011</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>2007</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2005</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>2000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>2000</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29">
+        <v>2001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2020</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>2007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2017</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>2012</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2019</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>2019</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>2012</v>
+      </c>
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38">
+        <v>2015</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
+        <v>2013</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40">
+        <v>2015</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>2014</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>2019</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>2020</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44">
+        <v>2000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>2014</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47">
+        <v>2017</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E47">
+    <sortCondition ref="A4:A47"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598E2C26-5F7C-4753-8206-EC4ED7AEF980}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF978CEF-4D9C-417C-A460-67F4EE090377}">
-  <dimension ref="A1:G70"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="3" max="6" width="15.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1996</v>
-      </c>
-      <c r="C2">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>209</v>
-      </c>
-      <c r="E2">
-        <v>312</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2005</v>
-      </c>
-      <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2011</v>
-      </c>
-      <c r="C4">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2005</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2019</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>2020</v>
-      </c>
-      <c r="C9">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>2003</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2013</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2015</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2018</v>
-      </c>
-      <c r="C14">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>2005</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2011</v>
-      </c>
-      <c r="C18">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2014</v>
-      </c>
-      <c r="C19">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2015</v>
-      </c>
-      <c r="C20">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>2018</v>
-      </c>
-      <c r="C21">
-        <v>91</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2019</v>
-      </c>
-      <c r="C22">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2019</v>
-      </c>
-      <c r="C24">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>2020</v>
-      </c>
-      <c r="C25">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>1993</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1996</v>
-      </c>
-      <c r="C28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1997</v>
-      </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>1998</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>1999</v>
-      </c>
-      <c r="C31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>2000</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>2001</v>
-      </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34">
-        <v>2002</v>
-      </c>
-      <c r="C34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35">
-        <v>2003</v>
-      </c>
-      <c r="C35">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>2004</v>
-      </c>
-      <c r="C36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>2005</v>
-      </c>
-      <c r="C37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38">
-        <v>2006</v>
-      </c>
-      <c r="C38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39">
-        <v>2007</v>
-      </c>
-      <c r="C39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40">
-        <v>2008</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41">
-        <v>2009</v>
-      </c>
-      <c r="C41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42">
-        <v>2010</v>
-      </c>
-      <c r="C42">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43">
-        <v>2011</v>
-      </c>
-      <c r="C43">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44">
-        <v>2012</v>
-      </c>
-      <c r="C44">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45">
-        <v>2013</v>
-      </c>
-      <c r="C45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46">
-        <v>2014</v>
-      </c>
-      <c r="C46">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47">
-        <v>2015</v>
-      </c>
-      <c r="C47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48">
-        <v>2016</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49">
-        <v>2017</v>
-      </c>
-      <c r="C49">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50">
-        <v>2018</v>
-      </c>
-      <c r="C50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51">
-        <v>2019</v>
-      </c>
-      <c r="C51">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52">
-        <v>2020</v>
-      </c>
-      <c r="C52">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>2014</v>
-      </c>
-      <c r="C56">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57">
-        <v>1997</v>
-      </c>
-      <c r="C57">
-        <v>31</v>
-      </c>
-      <c r="F57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58">
-        <v>2003</v>
-      </c>
-      <c r="C58">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59">
-        <v>2005</v>
-      </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60">
-        <v>2020</v>
-      </c>
-      <c r="C60">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62">
-        <v>2020</v>
-      </c>
-      <c r="C62">
-        <v>43</v>
-      </c>
-      <c r="F62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65">
-        <v>2011</v>
-      </c>
-      <c r="C65">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66">
-        <v>2016</v>
-      </c>
-      <c r="C66">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67">
-        <v>2017</v>
-      </c>
-      <c r="C67">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68">
-        <v>2019</v>
-      </c>
-      <c r="C68">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69">
-        <v>2007</v>
-      </c>
-      <c r="C69">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/butterfly.date.outlier.notes.xlsx
+++ b/data/butterfly.date.outlier.notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhamo\Documents\git\nc-butterfly-phenology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F858A775-773A-4395-91F1-5925F862D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6BC42-4DA1-4E99-82FD-79A8E17C0581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" activeTab="1" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" tabRatio="417" xr2:uid="{AFBB4C1E-9820-474D-A61E-6E962BF62D18}"/>
   </bookViews>
   <sheets>
     <sheet name="notes by species" sheetId="2" r:id="rId1"/>
@@ -347,9 +347,6 @@
     <t>Thorybes bathyllus</t>
   </si>
   <si>
-    <t>Vanessa atalantis</t>
-  </si>
-  <si>
     <t>Wallengrenia otho</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>CL archive starts in 2003 - need to consult HL for earlier years</t>
+  </si>
+  <si>
+    <t>Vanessa atalanta</t>
   </si>
 </sst>
 </file>
@@ -921,11 +921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81EFF3C-CDDE-41B0-A824-6179CE9B7230}">
   <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,7 +937,7 @@
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="6" max="6" width="16.90625" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="9" width="13" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="21.90625" style="5" customWidth="1"/>
     <col min="11" max="12" width="17.81640625" customWidth="1"/>
     <col min="13" max="13" width="17.36328125" customWidth="1"/>
@@ -974,7 +974,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
@@ -983,7 +983,7 @@
         <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>27</v>
@@ -1059,7 +1059,7 @@
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2">
         <v>13</v>
@@ -1238,7 +1238,7 @@
         <v>41</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V4" t="s">
         <v>41</v>
@@ -1463,7 +1463,7 @@
         <v>41</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -1535,7 +1535,7 @@
         <v>41</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>41</v>
@@ -1716,7 +1716,7 @@
         <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11">
         <v>16</v>
@@ -1967,7 +1967,7 @@
         <v>71.36</v>
       </c>
       <c r="S14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>41</v>
@@ -1976,7 +1976,7 @@
         <v>41</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -2039,10 +2039,10 @@
         <v>95.45</v>
       </c>
       <c r="S15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>41</v>
@@ -2072,7 +2072,7 @@
         <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -2232,10 +2232,10 @@
         <v>204.17</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -2270,7 +2270,7 @@
         <v>41</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -2333,7 +2333,7 @@
         <v>74.41</v>
       </c>
       <c r="S19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>41</v>
@@ -2342,7 +2342,7 @@
         <v>41</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
@@ -2483,7 +2483,7 @@
         <v>2017</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>41</v>
@@ -2783,7 +2783,7 @@
         <v>41</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
@@ -3002,7 +3002,7 @@
         <v>41</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
@@ -3587,7 +3587,7 @@
         <v>2020</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>41</v>
@@ -3737,7 +3737,7 @@
         <v>41</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
@@ -3771,10 +3771,10 @@
         <v>121.84</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -3809,7 +3809,7 @@
         <v>41</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
@@ -3843,10 +3843,10 @@
         <v>123.73</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L40">
         <v>15</v>
@@ -3872,7 +3872,7 @@
         <v>68.37</v>
       </c>
       <c r="S40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>41</v>
@@ -3881,7 +3881,7 @@
         <v>41</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
@@ -3918,7 +3918,7 @@
         <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L41">
         <v>10</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>41</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="B46">
         <v>93</v>
@@ -4319,7 +4319,7 @@
         <v>41</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
@@ -4399,7 +4399,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>127</v>
@@ -4460,7 +4460,7 @@
         <v>2010</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>41</v>
@@ -4478,9 +4478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF978CEF-4D9C-417C-A460-67F4EE090377}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4490,7 +4490,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4501,13 +4501,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4515,10 +4515,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4526,13 +4526,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -4540,16 +4540,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2019</v>
+        <v>1996</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -4557,10 +4557,10 @@
         <v>81</v>
       </c>
       <c r="B7">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4568,13 +4568,13 @@
         <v>82</v>
       </c>
       <c r="B8">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4582,13 +4582,13 @@
         <v>83</v>
       </c>
       <c r="B9">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4596,13 +4596,13 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -4610,13 +4610,13 @@
         <v>85</v>
       </c>
       <c r="B11">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -4624,13 +4624,13 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -4638,13 +4638,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -4652,13 +4652,13 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -4666,13 +4666,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -4683,10 +4683,10 @@
         <v>2005</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -4694,13 +4694,13 @@
         <v>87</v>
       </c>
       <c r="B17">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4708,10 +4708,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4719,10 +4719,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -4730,13 +4730,13 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -4744,10 +4744,10 @@
         <v>88</v>
       </c>
       <c r="B21">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -4755,10 +4755,10 @@
         <v>88</v>
       </c>
       <c r="B22">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -4766,10 +4766,10 @@
         <v>89</v>
       </c>
       <c r="B23">
-        <v>1994</v>
+        <v>2012</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -4777,10 +4777,10 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -4788,10 +4788,10 @@
         <v>90</v>
       </c>
       <c r="B25">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4799,13 +4799,13 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -4813,10 +4813,10 @@
         <v>92</v>
       </c>
       <c r="B27">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -4824,10 +4824,10 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -4835,10 +4835,10 @@
         <v>94</v>
       </c>
       <c r="B29">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -4846,13 +4846,13 @@
         <v>11</v>
       </c>
       <c r="B30">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -4860,13 +4860,13 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -4874,10 +4874,10 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -4885,13 +4885,13 @@
         <v>22</v>
       </c>
       <c r="B33">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -4899,16 +4899,16 @@
         <v>96</v>
       </c>
       <c r="B34">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -4916,13 +4916,13 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -4930,13 +4930,13 @@
         <v>97</v>
       </c>
       <c r="B36">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -4944,10 +4944,10 @@
         <v>98</v>
       </c>
       <c r="B37">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -4955,10 +4955,10 @@
         <v>98</v>
       </c>
       <c r="B38">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -4966,13 +4966,13 @@
         <v>99</v>
       </c>
       <c r="B39">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -4980,13 +4980,13 @@
         <v>99</v>
       </c>
       <c r="B40">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -4994,10 +4994,10 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -5008,10 +5008,10 @@
         <v>2019</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -5022,13 +5022,13 @@
         <v>2020</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -5036,21 +5036,21 @@
         <v>102</v>
       </c>
       <c r="B44">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="B45">
-        <v>1993</v>
+        <v>2020</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -5058,29 +5058,29 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E47">
-    <sortCondition ref="A4:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B47">
+    <sortCondition ref="B3:B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5097,12 +5097,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -5112,12 +5112,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
